--- a/teaching/traditional_assets/database/data/brazil/brazil_recreation.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_recreation.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bovespa_estr4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,46 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.126</v>
+        <v>-0.0689</v>
       </c>
       <c r="E2">
-        <v>-0.167</v>
+        <v>-0.186</v>
       </c>
       <c r="G2">
-        <v>-0.4531582682753726</v>
+        <v>-0.08743362831858408</v>
       </c>
       <c r="H2">
-        <v>-0.4531582682753726</v>
+        <v>-0.08743362831858408</v>
       </c>
       <c r="I2">
-        <v>-0.5209368346344926</v>
+        <v>0.07557522123893806</v>
       </c>
       <c r="J2">
-        <v>-0.4312872398369287</v>
+        <v>0.06269308125502816</v>
       </c>
       <c r="K2">
-        <v>-13.451</v>
+        <v>-3.441</v>
       </c>
       <c r="L2">
-        <v>-0.4773243435060326</v>
+        <v>-0.1522566371681416</v>
       </c>
       <c r="M2">
-        <v>0.907</v>
+        <v>0.489</v>
       </c>
       <c r="N2">
-        <v>0.009369834710743801</v>
+        <v>0.01885119506553585</v>
       </c>
       <c r="O2">
-        <v>-0.0674299308601591</v>
+        <v>-0.1421098517872711</v>
       </c>
       <c r="P2">
-        <v>0.907</v>
+        <v>0.489</v>
       </c>
       <c r="Q2">
-        <v>0.009369834710743801</v>
+        <v>0.01885119506553585</v>
       </c>
       <c r="R2">
-        <v>-0.0674299308601591</v>
+        <v>-0.1421098517872711</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>38.08</v>
+        <v>26.937</v>
       </c>
       <c r="V2">
-        <v>0.3933884297520661</v>
+        <v>1.038434849653046</v>
       </c>
       <c r="W2">
-        <v>-0.3946455917335713</v>
+        <v>0.02683014139967782</v>
       </c>
       <c r="X2">
-        <v>0.0891105758555062</v>
+        <v>0.148349369817211</v>
       </c>
       <c r="Y2">
-        <v>-0.4837561675890775</v>
+        <v>-0.1215192284175332</v>
       </c>
       <c r="Z2">
-        <v>1.321143928738866</v>
+        <v>-0.2644852485108076</v>
       </c>
       <c r="AA2">
-        <v>-0.5680682078043542</v>
+        <v>-0.02630569294598783</v>
       </c>
       <c r="AB2">
-        <v>0.08759731035434375</v>
+        <v>0.08091294500008279</v>
       </c>
       <c r="AC2">
-        <v>-0.6556655181586979</v>
+        <v>-0.1072186379460706</v>
       </c>
       <c r="AD2">
-        <v>2.05</v>
+        <v>11.792</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.05</v>
+        <v>11.792</v>
       </c>
       <c r="AG2">
-        <v>-36.03</v>
+        <v>-15.145</v>
       </c>
       <c r="AH2">
-        <v>0.02073849266565503</v>
+        <v>0.3125198770274568</v>
       </c>
       <c r="AI2">
-        <v>0.04029088050314465</v>
+        <v>-0.2800417972831766</v>
       </c>
       <c r="AJ2">
-        <v>-0.5928912292249464</v>
+        <v>-1.402964335340436</v>
       </c>
       <c r="AK2">
-        <v>-2.814843750000001</v>
+        <v>0.2193496994713593</v>
       </c>
       <c r="AL2">
-        <v>1.465</v>
+        <v>5.741</v>
       </c>
       <c r="AM2">
-        <v>-1.613</v>
+        <v>4.583</v>
       </c>
       <c r="AN2">
-        <v>-0.1687242798353909</v>
+        <v>5.140366172624237</v>
       </c>
       <c r="AO2">
-        <v>-10.02047781569966</v>
+        <v>0.2975091447483018</v>
       </c>
       <c r="AP2">
-        <v>2.965432098765432</v>
+        <v>-6.60200523103749</v>
       </c>
       <c r="AQ2">
-        <v>9.101053936763792</v>
+        <v>0.3726816495745146</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +718,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bicicletas Monark S.A. (BOVESPA:BMKS3)</t>
+          <t>Manufatura de Brinquedos Estrela S.A. (BOVESPA:ESTR4)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,121 +727,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.142</v>
-      </c>
-      <c r="E3">
-        <v>-0.167</v>
+        <v>-0.09880000000000001</v>
       </c>
       <c r="G3">
-        <v>-0.2988826815642458</v>
+        <v>-0.03576719576719577</v>
       </c>
       <c r="H3">
-        <v>-0.2988826815642458</v>
+        <v>-0.03576719576719577</v>
       </c>
       <c r="I3">
-        <v>-0.3016759776536313</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="J3">
-        <v>-0.1978433155774977</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="K3">
-        <v>0.849</v>
+        <v>-4.17</v>
       </c>
       <c r="L3">
-        <v>0.2371508379888268</v>
+        <v>-0.2206349206349207</v>
       </c>
       <c r="M3">
-        <v>0.907</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02916398713826367</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.06831566548881</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.907</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02916398713826367</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.06831566548881</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>35.5</v>
+        <v>0.637</v>
       </c>
       <c r="V3">
-        <v>1.141479099678457</v>
+        <v>0.1658854166666667</v>
       </c>
       <c r="W3">
-        <v>0.01861842105263158</v>
+        <v>0.03756756756756757</v>
       </c>
       <c r="X3">
-        <v>0.09059892430691684</v>
+        <v>0.2141932539614394</v>
       </c>
       <c r="Y3">
-        <v>-0.07198050325428526</v>
+        <v>-0.1766256863938718</v>
       </c>
       <c r="Z3">
-        <v>0.4261904761904763</v>
+        <v>-0.194246600684488</v>
       </c>
       <c r="AA3">
-        <v>-0.08431893687707644</v>
+        <v>-0.02302181934038377</v>
       </c>
       <c r="AB3">
-        <v>0.08757239330459192</v>
+        <v>0.08134988534841767</v>
       </c>
       <c r="AC3">
-        <v>-0.1718913301816684</v>
+        <v>-0.1043717046888014</v>
       </c>
       <c r="AD3">
-        <v>2.05</v>
+        <v>10.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.05</v>
+        <v>10.9</v>
       </c>
       <c r="AG3">
-        <v>-33.45</v>
+        <v>10.263</v>
       </c>
       <c r="AH3">
-        <v>0.06184012066365007</v>
+        <v>0.7394843962008141</v>
       </c>
       <c r="AI3">
-        <v>0.04329461457233369</v>
+        <v>-0.1437994722955145</v>
       </c>
       <c r="AJ3">
-        <v>14.23404255319148</v>
+        <v>0.7277175069134226</v>
       </c>
       <c r="AK3">
-        <v>-2.822784810126584</v>
+        <v>-0.1342674359276267</v>
       </c>
       <c r="AL3">
-        <v>0.105</v>
+        <v>5.64</v>
       </c>
       <c r="AM3">
-        <v>-2.285</v>
+        <v>5.622</v>
       </c>
       <c r="AN3">
-        <v>-1.952380952380952</v>
+        <v>3.879003558718861</v>
       </c>
       <c r="AO3">
-        <v>-10.28571428571429</v>
+        <v>0.397163120567376</v>
       </c>
       <c r="AP3">
-        <v>31.85714285714286</v>
+        <v>3.652313167259786</v>
       </c>
       <c r="AQ3">
-        <v>0.4726477024070022</v>
+        <v>0.3984347207399502</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +846,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>São Paulo Turismo S.A. (BOVESPA:AHEB3)</t>
+          <t>Bicicletas Monark S.A. (BOVESPA:BMKS3)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,115 +855,8836 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.11</v>
+        <v>-0.039</v>
+      </c>
+      <c r="E4">
+        <v>-0.186</v>
       </c>
       <c r="G4">
-        <v>-0.4756097560975609</v>
+        <v>-0.3513513513513514</v>
       </c>
       <c r="H4">
-        <v>-0.4756097560975609</v>
+        <v>-0.3513513513513514</v>
       </c>
       <c r="I4">
-        <v>-0.5528455284552845</v>
+        <v>-0.1437837837837838</v>
       </c>
       <c r="J4">
-        <v>-0.5528455284552845</v>
+        <v>-0.09476658476658478</v>
       </c>
       <c r="K4">
-        <v>-14.3</v>
+        <v>0.729</v>
       </c>
       <c r="L4">
-        <v>-0.5813008130081301</v>
+        <v>0.197027027027027</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.489</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.02212669683257918</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6707818930041153</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>0.489</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.02212669683257918</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.6707818930041153</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>2.58</v>
+        <v>26.3</v>
       </c>
       <c r="V4">
-        <v>0.03926940639269406</v>
+        <v>1.190045248868778</v>
       </c>
       <c r="W4">
-        <v>-0.8079096045197741</v>
+        <v>0.01609271523178808</v>
       </c>
       <c r="X4">
-        <v>0.08762222740409557</v>
+        <v>0.08250548567298265</v>
       </c>
       <c r="Y4">
-        <v>-0.8955318319238696</v>
+        <v>-0.06641277044119456</v>
       </c>
       <c r="Z4">
-        <v>1.902552204176334</v>
+        <v>0.3122362869198314</v>
       </c>
       <c r="AA4">
-        <v>-1.051817478731632</v>
+        <v>-0.02958956655159189</v>
       </c>
       <c r="AB4">
-        <v>0.08762222740409557</v>
+        <v>0.08047600465174792</v>
       </c>
       <c r="AC4">
-        <v>-1.139439706135728</v>
+        <v>-0.1100655712033398</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.892</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.892</v>
       </c>
       <c r="AG4">
-        <v>-2.58</v>
+        <v>-25.408</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.03879610299234516</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.02647512762673632</v>
       </c>
       <c r="AJ4">
-        <v>-0.04087452471482889</v>
+        <v>7.680773881499396</v>
       </c>
       <c r="AK4">
-        <v>-2.715789473684211</v>
+        <v>-3.437229437229439</v>
       </c>
       <c r="AL4">
-        <v>1.36</v>
+        <v>0.101</v>
       </c>
       <c r="AM4">
-        <v>0.6720000000000002</v>
+        <v>-1.039</v>
       </c>
       <c r="AN4">
-        <v>-0</v>
+        <v>-1.728682170542636</v>
       </c>
       <c r="AO4">
-        <v>-9.999999999999998</v>
+        <v>-5.267326732673268</v>
       </c>
       <c r="AP4">
-        <v>0.2324324324324324</v>
+        <v>49.24031007751938</v>
       </c>
       <c r="AQ4">
-        <v>-20.23809523809523</v>
+        <v>0.5120307988450433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Manufatura de Brinquedos Estrela S.A. (BOVESPA:ESTR4)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BOVESPA:ESTR4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.739484396200814</v>
+      </c>
+      <c r="F2">
+        <v>0.96</v>
+      </c>
+      <c r="G2">
+        <v>3.84</v>
+      </c>
+      <c r="H2">
+        <v>4.86031593059162</v>
+      </c>
+      <c r="I2">
+        <v>14.103</v>
+      </c>
+      <c r="J2">
+        <v>18.3737159305916</v>
+      </c>
+      <c r="K2">
+        <v>10.9</v>
+      </c>
+      <c r="L2">
+        <v>14.1504</v>
+      </c>
+      <c r="M2">
+        <v>0.08134988534841769</v>
+      </c>
+      <c r="N2">
+        <v>0.0610757027492074</v>
+      </c>
+      <c r="O2">
+        <v>0.0345500197086008</v>
+      </c>
+      <c r="P2">
+        <v>0.0132</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.214193253961439</v>
+      </c>
+      <c r="T2">
+        <v>1.21009256873018</v>
+      </c>
+      <c r="U2">
+        <v>2.68553496263023</v>
+      </c>
+      <c r="V2">
+        <v>15.7387828239497</v>
+      </c>
+      <c r="W2">
+        <v>7.914970601537768</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>3.84</v>
+      </c>
+      <c r="AB2">
+        <v>0.07629513553633499</v>
+      </c>
+      <c r="AC2">
+        <v>0.05234851471000126</v>
+      </c>
+      <c r="AD2">
+        <v>0.34</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>2.81</v>
+      </c>
+      <c r="AH2">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="AI2">
+        <v>0.8109999999999997</v>
+      </c>
+      <c r="AJ2">
+        <v>10.9</v>
+      </c>
+      <c r="AK2">
+        <v>10.9</v>
+      </c>
+      <c r="AL2">
+        <v>5.64</v>
+      </c>
+      <c r="AN2">
+        <v>0.637</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.08060597201485657</v>
+      </c>
+      <c r="C2">
+        <v>14.86131486908313</v>
+      </c>
+      <c r="D2">
+        <v>14.22431486908313</v>
+      </c>
+      <c r="E2">
+        <v>-10.9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.637</v>
+      </c>
+      <c r="H2">
+        <v>3.84</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2.81</v>
+      </c>
+      <c r="K2">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L2">
+        <v>2.24</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>2.24</v>
+      </c>
+      <c r="O2">
+        <v>0.7616000000000002</v>
+      </c>
+      <c r="P2">
+        <v>1.4784</v>
+      </c>
+      <c r="Q2">
+        <v>2.0484</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.08060597201485657</v>
+      </c>
+      <c r="T2">
+        <v>0.9346070560540211</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.34</v>
+      </c>
+      <c r="W2">
+        <v>0.010692</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.08037745171000606</v>
+      </c>
+      <c r="C3">
+        <v>14.75160133844719</v>
+      </c>
+      <c r="D3">
+        <v>14.26200133844719</v>
+      </c>
+      <c r="E3">
+        <v>-10.7526</v>
+      </c>
+      <c r="F3">
+        <v>0.1474</v>
+      </c>
+      <c r="G3">
+        <v>0.637</v>
+      </c>
+      <c r="H3">
+        <v>3.84</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2.81</v>
+      </c>
+      <c r="K3">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L3">
+        <v>2.24</v>
+      </c>
+      <c r="M3">
+        <v>0.00238788</v>
+      </c>
+      <c r="N3">
+        <v>2.23761212</v>
+      </c>
+      <c r="O3">
+        <v>0.7607881208000001</v>
+      </c>
+      <c r="P3">
+        <v>1.4768239992</v>
+      </c>
+      <c r="Q3">
+        <v>2.0468239992</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.08108134516162228</v>
+      </c>
+      <c r="T3">
+        <v>0.9408377697610478</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.34</v>
+      </c>
+      <c r="W3">
+        <v>0.010692</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>938.0705898118835</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.08014893140515554</v>
+      </c>
+      <c r="C4">
+        <v>14.64208803438138</v>
+      </c>
+      <c r="D4">
+        <v>14.29988803438138</v>
+      </c>
+      <c r="E4">
+        <v>-10.6052</v>
+      </c>
+      <c r="F4">
+        <v>0.2948</v>
+      </c>
+      <c r="G4">
+        <v>0.637</v>
+      </c>
+      <c r="H4">
+        <v>3.84</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.81</v>
+      </c>
+      <c r="K4">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L4">
+        <v>2.24</v>
+      </c>
+      <c r="M4">
+        <v>0.00477576</v>
+      </c>
+      <c r="N4">
+        <v>2.23522424</v>
+      </c>
+      <c r="O4">
+        <v>0.7599762416000002</v>
+      </c>
+      <c r="P4">
+        <v>1.4752479984</v>
+      </c>
+      <c r="Q4">
+        <v>2.0452479984</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.08156641980117912</v>
+      </c>
+      <c r="T4">
+        <v>0.947195640890667</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.34</v>
+      </c>
+      <c r="W4">
+        <v>0.010692</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>469.0352949059418</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07992041110030504</v>
+      </c>
+      <c r="C5">
+        <v>14.53277655682849</v>
+      </c>
+      <c r="D5">
+        <v>14.33797655682849</v>
+      </c>
+      <c r="E5">
+        <v>-10.4578</v>
+      </c>
+      <c r="F5">
+        <v>0.4422</v>
+      </c>
+      <c r="G5">
+        <v>0.637</v>
+      </c>
+      <c r="H5">
+        <v>3.84</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2.81</v>
+      </c>
+      <c r="K5">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L5">
+        <v>2.24</v>
+      </c>
+      <c r="M5">
+        <v>0.007163639999999999</v>
+      </c>
+      <c r="N5">
+        <v>2.23283636</v>
+      </c>
+      <c r="O5">
+        <v>0.7591643624000002</v>
+      </c>
+      <c r="P5">
+        <v>1.4736719976</v>
+      </c>
+      <c r="Q5">
+        <v>2.0436719976</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.08206149597969592</v>
+      </c>
+      <c r="T5">
+        <v>0.9536846021466703</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.34</v>
+      </c>
+      <c r="W5">
+        <v>0.010692</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>312.6901966039612</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07969189079545452</v>
+      </c>
+      <c r="C6">
+        <v>14.42366852282296</v>
+      </c>
+      <c r="D6">
+        <v>14.37626852282296</v>
+      </c>
+      <c r="E6">
+        <v>-10.3104</v>
+      </c>
+      <c r="F6">
+        <v>0.5896</v>
+      </c>
+      <c r="G6">
+        <v>0.637</v>
+      </c>
+      <c r="H6">
+        <v>3.84</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2.81</v>
+      </c>
+      <c r="K6">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L6">
+        <v>2.24</v>
+      </c>
+      <c r="M6">
+        <v>0.009551519999999999</v>
+      </c>
+      <c r="N6">
+        <v>2.23044848</v>
+      </c>
+      <c r="O6">
+        <v>0.7583524832000001</v>
+      </c>
+      <c r="P6">
+        <v>1.4720959968</v>
+      </c>
+      <c r="Q6">
+        <v>2.0420959968</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.08256688624526513</v>
+      </c>
+      <c r="T6">
+        <v>0.9603087500955068</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.34</v>
+      </c>
+      <c r="W6">
+        <v>0.010692</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>234.5176474529709</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07946337049060399</v>
+      </c>
+      <c r="C7">
+        <v>14.31476556671973</v>
+      </c>
+      <c r="D7">
+        <v>14.41476556671973</v>
+      </c>
+      <c r="E7">
+        <v>-10.163</v>
+      </c>
+      <c r="F7">
+        <v>0.7370000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.637</v>
+      </c>
+      <c r="H7">
+        <v>3.84</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2.81</v>
+      </c>
+      <c r="K7">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L7">
+        <v>2.24</v>
+      </c>
+      <c r="M7">
+        <v>0.0119394</v>
+      </c>
+      <c r="N7">
+        <v>2.2280606</v>
+      </c>
+      <c r="O7">
+        <v>0.7575406040000001</v>
+      </c>
+      <c r="P7">
+        <v>1.470519996</v>
+      </c>
+      <c r="Q7">
+        <v>2.040519996</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.08308291630589895</v>
+      </c>
+      <c r="T7">
+        <v>0.9670723537906344</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.34</v>
+      </c>
+      <c r="W7">
+        <v>0.010692</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>187.6141179623767</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07923485018575352</v>
+      </c>
+      <c r="C8">
+        <v>14.20606934042677</v>
+      </c>
+      <c r="D8">
+        <v>14.45346934042677</v>
+      </c>
+      <c r="E8">
+        <v>-10.0156</v>
+      </c>
+      <c r="F8">
+        <v>0.8844</v>
+      </c>
+      <c r="G8">
+        <v>0.637</v>
+      </c>
+      <c r="H8">
+        <v>3.84</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2.81</v>
+      </c>
+      <c r="K8">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L8">
+        <v>2.24</v>
+      </c>
+      <c r="M8">
+        <v>0.01432728</v>
+      </c>
+      <c r="N8">
+        <v>2.22567272</v>
+      </c>
+      <c r="O8">
+        <v>0.7567287248000002</v>
+      </c>
+      <c r="P8">
+        <v>1.4689439952</v>
+      </c>
+      <c r="Q8">
+        <v>2.0389439952</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.08360992572952501</v>
+      </c>
+      <c r="T8">
+        <v>0.9739798639473608</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.34</v>
+      </c>
+      <c r="W8">
+        <v>0.010692</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>156.3450983019806</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07900632988090299</v>
+      </c>
+      <c r="C9">
+        <v>14.09758151364137</v>
+      </c>
+      <c r="D9">
+        <v>14.49238151364137</v>
+      </c>
+      <c r="E9">
+        <v>-9.8682</v>
+      </c>
+      <c r="F9">
+        <v>1.0318</v>
+      </c>
+      <c r="G9">
+        <v>0.637</v>
+      </c>
+      <c r="H9">
+        <v>3.84</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2.81</v>
+      </c>
+      <c r="K9">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L9">
+        <v>2.24</v>
+      </c>
+      <c r="M9">
+        <v>0.01671516</v>
+      </c>
+      <c r="N9">
+        <v>2.22328484</v>
+      </c>
+      <c r="O9">
+        <v>0.7559168456000002</v>
+      </c>
+      <c r="P9">
+        <v>1.4673679944</v>
+      </c>
+      <c r="Q9">
+        <v>2.0373679944</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.084148268689143</v>
+      </c>
+      <c r="T9">
+        <v>0.981035922709608</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.34</v>
+      </c>
+      <c r="W9">
+        <v>0.010692</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>134.0100842588405</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07877780957605247</v>
+      </c>
+      <c r="C10">
+        <v>13.98930377409025</v>
+      </c>
+      <c r="D10">
+        <v>14.53150377409025</v>
+      </c>
+      <c r="E10">
+        <v>-9.720800000000001</v>
+      </c>
+      <c r="F10">
+        <v>1.1792</v>
+      </c>
+      <c r="G10">
+        <v>0.637</v>
+      </c>
+      <c r="H10">
+        <v>3.84</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2.81</v>
+      </c>
+      <c r="K10">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L10">
+        <v>2.24</v>
+      </c>
+      <c r="M10">
+        <v>0.01910304</v>
+      </c>
+      <c r="N10">
+        <v>2.22089696</v>
+      </c>
+      <c r="O10">
+        <v>0.7551049664000001</v>
+      </c>
+      <c r="P10">
+        <v>1.4657919936</v>
+      </c>
+      <c r="Q10">
+        <v>2.0357919936</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.08469831475657877</v>
+      </c>
+      <c r="T10">
+        <v>0.9882453740536431</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.34</v>
+      </c>
+      <c r="W10">
+        <v>0.010692</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>117.2588237264854</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07854928927120196</v>
+      </c>
+      <c r="C11">
+        <v>13.88123782777356</v>
+      </c>
+      <c r="D11">
+        <v>14.57083782777356</v>
+      </c>
+      <c r="E11">
+        <v>-9.573399999999999</v>
+      </c>
+      <c r="F11">
+        <v>1.3266</v>
+      </c>
+      <c r="G11">
+        <v>0.637</v>
+      </c>
+      <c r="H11">
+        <v>3.84</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2.81</v>
+      </c>
+      <c r="K11">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L11">
+        <v>2.24</v>
+      </c>
+      <c r="M11">
+        <v>0.02149092</v>
+      </c>
+      <c r="N11">
+        <v>2.21850908</v>
+      </c>
+      <c r="O11">
+        <v>0.7542930872000001</v>
+      </c>
+      <c r="P11">
+        <v>1.4642159928</v>
+      </c>
+      <c r="Q11">
+        <v>2.0342159928</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.08526044974857358</v>
+      </c>
+      <c r="T11">
+        <v>0.995613274877767</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.34</v>
+      </c>
+      <c r="W11">
+        <v>0.010692</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>104.2300655346537</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07832076896635146</v>
+      </c>
+      <c r="C12">
+        <v>13.77338539921287</v>
+      </c>
+      <c r="D12">
+        <v>14.61038539921287</v>
+      </c>
+      <c r="E12">
+        <v>-9.426</v>
+      </c>
+      <c r="F12">
+        <v>1.474</v>
+      </c>
+      <c r="G12">
+        <v>0.637</v>
+      </c>
+      <c r="H12">
+        <v>3.84</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2.81</v>
+      </c>
+      <c r="K12">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L12">
+        <v>2.24</v>
+      </c>
+      <c r="M12">
+        <v>0.0238788</v>
+      </c>
+      <c r="N12">
+        <v>2.2161212</v>
+      </c>
+      <c r="O12">
+        <v>0.7534812080000002</v>
+      </c>
+      <c r="P12">
+        <v>1.462639992</v>
+      </c>
+      <c r="Q12">
+        <v>2.032639992</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.08583507662927939</v>
+      </c>
+      <c r="T12">
+        <v>1.003144906831316</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.34</v>
+      </c>
+      <c r="W12">
+        <v>0.010692</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>93.80705898118833</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07809224866150093</v>
+      </c>
+      <c r="C13">
+        <v>13.66574823170322</v>
+      </c>
+      <c r="D13">
+        <v>14.65014823170322</v>
+      </c>
+      <c r="E13">
+        <v>-9.278600000000001</v>
+      </c>
+      <c r="F13">
+        <v>1.6214</v>
+      </c>
+      <c r="G13">
+        <v>0.637</v>
+      </c>
+      <c r="H13">
+        <v>3.84</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2.81</v>
+      </c>
+      <c r="K13">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L13">
+        <v>2.24</v>
+      </c>
+      <c r="M13">
+        <v>0.02626668</v>
+      </c>
+      <c r="N13">
+        <v>2.21373332</v>
+      </c>
+      <c r="O13">
+        <v>0.7526693288000001</v>
+      </c>
+      <c r="P13">
+        <v>1.4610639912</v>
+      </c>
+      <c r="Q13">
+        <v>2.0310639912</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.08642261647359654</v>
+      </c>
+      <c r="T13">
+        <v>1.010845788941124</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.34</v>
+      </c>
+      <c r="W13">
+        <v>0.010692</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>85.27914452835304</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07786372835665042</v>
+      </c>
+      <c r="C14">
+        <v>13.55832808756925</v>
+      </c>
+      <c r="D14">
+        <v>14.69012808756925</v>
+      </c>
+      <c r="E14">
+        <v>-9.1312</v>
+      </c>
+      <c r="F14">
+        <v>1.7688</v>
+      </c>
+      <c r="G14">
+        <v>0.637</v>
+      </c>
+      <c r="H14">
+        <v>3.84</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2.81</v>
+      </c>
+      <c r="K14">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L14">
+        <v>2.24</v>
+      </c>
+      <c r="M14">
+        <v>0.02865456</v>
+      </c>
+      <c r="N14">
+        <v>2.21134544</v>
+      </c>
+      <c r="O14">
+        <v>0.7518574496000001</v>
+      </c>
+      <c r="P14">
+        <v>1.4594879904</v>
+      </c>
+      <c r="Q14">
+        <v>2.0294879904</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.08702350949619367</v>
+      </c>
+      <c r="T14">
+        <v>1.018721691098883</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.34</v>
+      </c>
+      <c r="W14">
+        <v>0.010692</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>78.17254915099029</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07763520805179991</v>
+      </c>
+      <c r="C15">
+        <v>13.45112674842561</v>
+      </c>
+      <c r="D15">
+        <v>14.73032674842561</v>
+      </c>
+      <c r="E15">
+        <v>-8.9838</v>
+      </c>
+      <c r="F15">
+        <v>1.9162</v>
+      </c>
+      <c r="G15">
+        <v>0.637</v>
+      </c>
+      <c r="H15">
+        <v>3.84</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2.81</v>
+      </c>
+      <c r="K15">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L15">
+        <v>2.24</v>
+      </c>
+      <c r="M15">
+        <v>0.03104244</v>
+      </c>
+      <c r="N15">
+        <v>2.20895756</v>
+      </c>
+      <c r="O15">
+        <v>0.7510455704000002</v>
+      </c>
+      <c r="P15">
+        <v>1.4579119896</v>
+      </c>
+      <c r="Q15">
+        <v>2.0279119896</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.08763821615149416</v>
+      </c>
+      <c r="T15">
+        <v>1.026778648478659</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.34</v>
+      </c>
+      <c r="W15">
+        <v>0.010692</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>72.15927613937565</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07740668774694939</v>
+      </c>
+      <c r="C16">
+        <v>13.34414601544158</v>
+      </c>
+      <c r="D16">
+        <v>14.77074601544158</v>
+      </c>
+      <c r="E16">
+        <v>-8.836400000000001</v>
+      </c>
+      <c r="F16">
+        <v>2.0636</v>
+      </c>
+      <c r="G16">
+        <v>0.637</v>
+      </c>
+      <c r="H16">
+        <v>3.84</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2.81</v>
+      </c>
+      <c r="K16">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L16">
+        <v>2.24</v>
+      </c>
+      <c r="M16">
+        <v>0.03343032</v>
+      </c>
+      <c r="N16">
+        <v>2.20656968</v>
+      </c>
+      <c r="O16">
+        <v>0.7502336912000002</v>
+      </c>
+      <c r="P16">
+        <v>1.4563359888</v>
+      </c>
+      <c r="Q16">
+        <v>2.0263359888</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08826721831040626</v>
+      </c>
+      <c r="T16">
+        <v>1.03502297696029</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.34</v>
+      </c>
+      <c r="W16">
+        <v>0.010692</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>67.00504212942025</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07717816744209889</v>
+      </c>
+      <c r="C17">
+        <v>13.23738770961008</v>
+      </c>
+      <c r="D17">
+        <v>14.81138770961008</v>
+      </c>
+      <c r="E17">
+        <v>-8.689</v>
+      </c>
+      <c r="F17">
+        <v>2.211</v>
+      </c>
+      <c r="G17">
+        <v>0.637</v>
+      </c>
+      <c r="H17">
+        <v>3.84</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2.81</v>
+      </c>
+      <c r="K17">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L17">
+        <v>2.24</v>
+      </c>
+      <c r="M17">
+        <v>0.03581819999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.2041818</v>
+      </c>
+      <c r="O17">
+        <v>0.7494218120000001</v>
+      </c>
+      <c r="P17">
+        <v>1.454759988</v>
+      </c>
+      <c r="Q17">
+        <v>2.024759988</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08891102052011635</v>
+      </c>
+      <c r="T17">
+        <v>1.043461289641489</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.34</v>
+      </c>
+      <c r="W17">
+        <v>0.010692</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>62.53803932079224</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07694964713724836</v>
+      </c>
+      <c r="C18">
+        <v>13.13085367202121</v>
+      </c>
+      <c r="D18">
+        <v>14.85225367202121</v>
+      </c>
+      <c r="E18">
+        <v>-8.541600000000001</v>
+      </c>
+      <c r="F18">
+        <v>2.3584</v>
+      </c>
+      <c r="G18">
+        <v>0.637</v>
+      </c>
+      <c r="H18">
+        <v>3.84</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2.81</v>
+      </c>
+      <c r="K18">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L18">
+        <v>2.24</v>
+      </c>
+      <c r="M18">
+        <v>0.03820608</v>
+      </c>
+      <c r="N18">
+        <v>2.20179392</v>
+      </c>
+      <c r="O18">
+        <v>0.7486099328000001</v>
+      </c>
+      <c r="P18">
+        <v>1.4531839872</v>
+      </c>
+      <c r="Q18">
+        <v>2.0231839872</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.0895701513538671</v>
+      </c>
+      <c r="T18">
+        <v>1.052100514529384</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.34</v>
+      </c>
+      <c r="W18">
+        <v>0.010692</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>58.62941186324272</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07672112683239786</v>
+      </c>
+      <c r="C19">
+        <v>13.0245457641402</v>
+      </c>
+      <c r="D19">
+        <v>14.8933457641402</v>
+      </c>
+      <c r="E19">
+        <v>-8.3942</v>
+      </c>
+      <c r="F19">
+        <v>2.5058</v>
+      </c>
+      <c r="G19">
+        <v>0.637</v>
+      </c>
+      <c r="H19">
+        <v>3.84</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2.81</v>
+      </c>
+      <c r="K19">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L19">
+        <v>2.24</v>
+      </c>
+      <c r="M19">
+        <v>0.04059396</v>
+      </c>
+      <c r="N19">
+        <v>2.19940604</v>
+      </c>
+      <c r="O19">
+        <v>0.7477980536000002</v>
+      </c>
+      <c r="P19">
+        <v>1.4516079864</v>
+      </c>
+      <c r="Q19">
+        <v>2.0216079864</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.09024516485831069</v>
+      </c>
+      <c r="T19">
+        <v>1.060947913510962</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.34</v>
+      </c>
+      <c r="W19">
+        <v>0.010692</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>55.18062293011079</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07649260652754736</v>
+      </c>
+      <c r="C20">
+        <v>12.91846586809007</v>
+      </c>
+      <c r="D20">
+        <v>14.93466586809007</v>
+      </c>
+      <c r="E20">
+        <v>-8.2468</v>
+      </c>
+      <c r="F20">
+        <v>2.6532</v>
+      </c>
+      <c r="G20">
+        <v>0.637</v>
+      </c>
+      <c r="H20">
+        <v>3.84</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2.81</v>
+      </c>
+      <c r="K20">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L20">
+        <v>2.24</v>
+      </c>
+      <c r="M20">
+        <v>0.04298184</v>
+      </c>
+      <c r="N20">
+        <v>2.19701816</v>
+      </c>
+      <c r="O20">
+        <v>0.7469861744000001</v>
+      </c>
+      <c r="P20">
+        <v>1.4500319856</v>
+      </c>
+      <c r="Q20">
+        <v>2.0200319856</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.09093664210676505</v>
+      </c>
+      <c r="T20">
+        <v>1.070011102711603</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.34</v>
+      </c>
+      <c r="W20">
+        <v>0.010692</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>52.11503276732686</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07626408622269686</v>
+      </c>
+      <c r="C21">
+        <v>12.81261588693903</v>
+      </c>
+      <c r="D21">
+        <v>14.97621588693903</v>
+      </c>
+      <c r="E21">
+        <v>-8.099399999999999</v>
+      </c>
+      <c r="F21">
+        <v>2.8006</v>
+      </c>
+      <c r="G21">
+        <v>0.637</v>
+      </c>
+      <c r="H21">
+        <v>3.84</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2.81</v>
+      </c>
+      <c r="K21">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L21">
+        <v>2.24</v>
+      </c>
+      <c r="M21">
+        <v>0.04536972</v>
+      </c>
+      <c r="N21">
+        <v>2.19463028</v>
+      </c>
+      <c r="O21">
+        <v>0.7461742952000001</v>
+      </c>
+      <c r="P21">
+        <v>1.4484559848</v>
+      </c>
+      <c r="Q21">
+        <v>2.0184559848</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.09164519286752697</v>
+      </c>
+      <c r="T21">
+        <v>1.079298074361644</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.34</v>
+      </c>
+      <c r="W21">
+        <v>0.010692</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>49.3721363058886</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07603556591784633</v>
+      </c>
+      <c r="C22">
+        <v>12.7069977449926</v>
+      </c>
+      <c r="D22">
+        <v>15.0179977449926</v>
+      </c>
+      <c r="E22">
+        <v>-7.952</v>
+      </c>
+      <c r="F22">
+        <v>2.948</v>
+      </c>
+      <c r="G22">
+        <v>0.637</v>
+      </c>
+      <c r="H22">
+        <v>3.84</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2.81</v>
+      </c>
+      <c r="K22">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L22">
+        <v>2.24</v>
+      </c>
+      <c r="M22">
+        <v>0.0477576</v>
+      </c>
+      <c r="N22">
+        <v>2.1922424</v>
+      </c>
+      <c r="O22">
+        <v>0.7453624160000001</v>
+      </c>
+      <c r="P22">
+        <v>1.446879984</v>
+      </c>
+      <c r="Q22">
+        <v>2.016879984</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.0923714573973079</v>
+      </c>
+      <c r="T22">
+        <v>1.088817220302934</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.34</v>
+      </c>
+      <c r="W22">
+        <v>0.010692</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>46.90352949059417</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07580704561299581</v>
+      </c>
+      <c r="C23">
+        <v>12.60161338809073</v>
+      </c>
+      <c r="D23">
+        <v>15.06001338809073</v>
+      </c>
+      <c r="E23">
+        <v>-7.804600000000001</v>
+      </c>
+      <c r="F23">
+        <v>3.0954</v>
+      </c>
+      <c r="G23">
+        <v>0.637</v>
+      </c>
+      <c r="H23">
+        <v>3.84</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2.81</v>
+      </c>
+      <c r="K23">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L23">
+        <v>2.24</v>
+      </c>
+      <c r="M23">
+        <v>0.05014548</v>
+      </c>
+      <c r="N23">
+        <v>2.18985452</v>
+      </c>
+      <c r="O23">
+        <v>0.7445505368000002</v>
+      </c>
+      <c r="P23">
+        <v>1.4453039832</v>
+      </c>
+      <c r="Q23">
+        <v>2.0153039832</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.09311610837088077</v>
+      </c>
+      <c r="T23">
+        <v>1.098577357280714</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.34</v>
+      </c>
+      <c r="W23">
+        <v>0.010692</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>44.67002808628017</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07557852530814531</v>
+      </c>
+      <c r="C24">
+        <v>12.49646478390983</v>
+      </c>
+      <c r="D24">
+        <v>15.10226478390983</v>
+      </c>
+      <c r="E24">
+        <v>-7.6572</v>
+      </c>
+      <c r="F24">
+        <v>3.2428</v>
+      </c>
+      <c r="G24">
+        <v>0.637</v>
+      </c>
+      <c r="H24">
+        <v>3.84</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2.81</v>
+      </c>
+      <c r="K24">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L24">
+        <v>2.24</v>
+      </c>
+      <c r="M24">
+        <v>0.05253335999999999</v>
+      </c>
+      <c r="N24">
+        <v>2.18746664</v>
+      </c>
+      <c r="O24">
+        <v>0.7437386576000001</v>
+      </c>
+      <c r="P24">
+        <v>1.4437279824</v>
+      </c>
+      <c r="Q24">
+        <v>2.0137279824</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.09387985295916064</v>
+      </c>
+      <c r="T24">
+        <v>1.108587754181</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.34</v>
+      </c>
+      <c r="W24">
+        <v>0.010692</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>42.63957226417652</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.07535000500329479</v>
+      </c>
+      <c r="C25">
+        <v>12.39155392227002</v>
+      </c>
+      <c r="D25">
+        <v>15.14475392227002</v>
+      </c>
+      <c r="E25">
+        <v>-7.5098</v>
+      </c>
+      <c r="F25">
+        <v>3.3902</v>
+      </c>
+      <c r="G25">
+        <v>0.637</v>
+      </c>
+      <c r="H25">
+        <v>3.84</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2.81</v>
+      </c>
+      <c r="K25">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L25">
+        <v>2.24</v>
+      </c>
+      <c r="M25">
+        <v>0.05492124</v>
+      </c>
+      <c r="N25">
+        <v>2.18507876</v>
+      </c>
+      <c r="O25">
+        <v>0.7429267784000001</v>
+      </c>
+      <c r="P25">
+        <v>1.4421519816</v>
+      </c>
+      <c r="Q25">
+        <v>2.0121519816</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.09466343506921401</v>
+      </c>
+      <c r="T25">
+        <v>1.118858161390385</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.34</v>
+      </c>
+      <c r="W25">
+        <v>0.010692</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>40.78567781790797</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.07512148469844426</v>
+      </c>
+      <c r="C26">
+        <v>12.28688281544742</v>
+      </c>
+      <c r="D26">
+        <v>15.18748281544742</v>
+      </c>
+      <c r="E26">
+        <v>-7.362400000000001</v>
+      </c>
+      <c r="F26">
+        <v>3.5376</v>
+      </c>
+      <c r="G26">
+        <v>0.637</v>
+      </c>
+      <c r="H26">
+        <v>3.84</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2.81</v>
+      </c>
+      <c r="K26">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L26">
+        <v>2.24</v>
+      </c>
+      <c r="M26">
+        <v>0.05730911999999999</v>
+      </c>
+      <c r="N26">
+        <v>2.18269088</v>
+      </c>
+      <c r="O26">
+        <v>0.7421148992000001</v>
+      </c>
+      <c r="P26">
+        <v>1.4405759808</v>
+      </c>
+      <c r="Q26">
+        <v>2.0105759808</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.09546763776111088</v>
+      </c>
+      <c r="T26">
+        <v>1.129398842473701</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.34</v>
+      </c>
+      <c r="W26">
+        <v>0.010692</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>39.08627457549515</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.07489296439359376</v>
+      </c>
+      <c r="C27">
+        <v>12.18245349849189</v>
+      </c>
+      <c r="D27">
+        <v>15.23045349849189</v>
+      </c>
+      <c r="E27">
+        <v>-7.215</v>
+      </c>
+      <c r="F27">
+        <v>3.685</v>
+      </c>
+      <c r="G27">
+        <v>0.637</v>
+      </c>
+      <c r="H27">
+        <v>3.84</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2.81</v>
+      </c>
+      <c r="K27">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L27">
+        <v>2.24</v>
+      </c>
+      <c r="M27">
+        <v>0.059697</v>
+      </c>
+      <c r="N27">
+        <v>2.180303</v>
+      </c>
+      <c r="O27">
+        <v>0.7413030200000001</v>
+      </c>
+      <c r="P27">
+        <v>1.43899998</v>
+      </c>
+      <c r="Q27">
+        <v>2.00899998</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.09629328585812502</v>
+      </c>
+      <c r="T27">
+        <v>1.140220608385906</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.34</v>
+      </c>
+      <c r="W27">
+        <v>0.010692</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>37.52282359247534</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.07466444408874326</v>
+      </c>
+      <c r="C28">
+        <v>12.0782680295501</v>
+      </c>
+      <c r="D28">
+        <v>15.2736680295501</v>
+      </c>
+      <c r="E28">
+        <v>-7.067600000000001</v>
+      </c>
+      <c r="F28">
+        <v>3.8324</v>
+      </c>
+      <c r="G28">
+        <v>0.637</v>
+      </c>
+      <c r="H28">
+        <v>3.84</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2.81</v>
+      </c>
+      <c r="K28">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L28">
+        <v>2.24</v>
+      </c>
+      <c r="M28">
+        <v>0.06208488</v>
+      </c>
+      <c r="N28">
+        <v>2.17791512</v>
+      </c>
+      <c r="O28">
+        <v>0.7404911408000001</v>
+      </c>
+      <c r="P28">
+        <v>1.4374239792</v>
+      </c>
+      <c r="Q28">
+        <v>2.0074239792</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.09714124876857197</v>
+      </c>
+      <c r="T28">
+        <v>1.1513348544579</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.34</v>
+      </c>
+      <c r="W28">
+        <v>0.010692</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>36.07963806968782</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.07443592378389273</v>
+      </c>
+      <c r="C29">
+        <v>11.97432849019415</v>
+      </c>
+      <c r="D29">
+        <v>15.31712849019415</v>
+      </c>
+      <c r="E29">
+        <v>-6.920199999999999</v>
+      </c>
+      <c r="F29">
+        <v>3.9798</v>
+      </c>
+      <c r="G29">
+        <v>0.637</v>
+      </c>
+      <c r="H29">
+        <v>3.84</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2.81</v>
+      </c>
+      <c r="K29">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L29">
+        <v>2.24</v>
+      </c>
+      <c r="M29">
+        <v>0.06447276</v>
+      </c>
+      <c r="N29">
+        <v>2.17552724</v>
+      </c>
+      <c r="O29">
+        <v>0.7396792616000001</v>
+      </c>
+      <c r="P29">
+        <v>1.4358479784</v>
+      </c>
+      <c r="Q29">
+        <v>2.0058479784</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09801244353957908</v>
+      </c>
+      <c r="T29">
+        <v>1.162753600422276</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.34</v>
+      </c>
+      <c r="W29">
+        <v>0.010692</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>34.7433551782179</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.07420740347904221</v>
+      </c>
+      <c r="C30">
+        <v>11.87063698575576</v>
+      </c>
+      <c r="D30">
+        <v>15.36083698575576</v>
+      </c>
+      <c r="E30">
+        <v>-6.7728</v>
+      </c>
+      <c r="F30">
+        <v>4.1272</v>
+      </c>
+      <c r="G30">
+        <v>0.637</v>
+      </c>
+      <c r="H30">
+        <v>3.84</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2.81</v>
+      </c>
+      <c r="K30">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L30">
+        <v>2.24</v>
+      </c>
+      <c r="M30">
+        <v>0.06686064</v>
+      </c>
+      <c r="N30">
+        <v>2.17313936</v>
+      </c>
+      <c r="O30">
+        <v>0.7388673824000002</v>
+      </c>
+      <c r="P30">
+        <v>1.4342719776</v>
+      </c>
+      <c r="Q30">
+        <v>2.0042719776</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.09890783816533642</v>
+      </c>
+      <c r="T30">
+        <v>1.174489533774553</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.34</v>
+      </c>
+      <c r="W30">
+        <v>0.010692</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>33.50252106471012</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.07397888317419171</v>
+      </c>
+      <c r="C31">
+        <v>11.76719564566627</v>
+      </c>
+      <c r="D31">
+        <v>15.40479564566627</v>
+      </c>
+      <c r="E31">
+        <v>-6.625400000000001</v>
+      </c>
+      <c r="F31">
+        <v>4.2746</v>
+      </c>
+      <c r="G31">
+        <v>0.637</v>
+      </c>
+      <c r="H31">
+        <v>3.84</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2.81</v>
+      </c>
+      <c r="K31">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L31">
+        <v>2.24</v>
+      </c>
+      <c r="M31">
+        <v>0.06924851999999999</v>
+      </c>
+      <c r="N31">
+        <v>2.17075148</v>
+      </c>
+      <c r="O31">
+        <v>0.7380555032000001</v>
+      </c>
+      <c r="P31">
+        <v>1.4326959768</v>
+      </c>
+      <c r="Q31">
+        <v>2.0026959768</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09982845517491791</v>
+      </c>
+      <c r="T31">
+        <v>1.186556056798725</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.34</v>
+      </c>
+      <c r="W31">
+        <v>0.010692</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>32.34726171765116</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.0737503628693412</v>
+      </c>
+      <c r="C32">
+        <v>11.66400662380247</v>
+      </c>
+      <c r="D32">
+        <v>15.44900662380247</v>
+      </c>
+      <c r="E32">
+        <v>-6.478000000000001</v>
+      </c>
+      <c r="F32">
+        <v>4.422</v>
+      </c>
+      <c r="G32">
+        <v>0.637</v>
+      </c>
+      <c r="H32">
+        <v>3.84</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2.81</v>
+      </c>
+      <c r="K32">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L32">
+        <v>2.24</v>
+      </c>
+      <c r="M32">
+        <v>0.07163639999999999</v>
+      </c>
+      <c r="N32">
+        <v>2.1683636</v>
+      </c>
+      <c r="O32">
+        <v>0.7372436240000001</v>
+      </c>
+      <c r="P32">
+        <v>1.431119976</v>
+      </c>
+      <c r="Q32">
+        <v>2.001119976</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1007753755276303</v>
+      </c>
+      <c r="T32">
+        <v>1.198967337623587</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.34</v>
+      </c>
+      <c r="W32">
+        <v>0.010692</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>31.26901966039612</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.07352184256449069</v>
+      </c>
+      <c r="C33">
+        <v>11.56107209883837</v>
+      </c>
+      <c r="D33">
+        <v>15.49347209883837</v>
+      </c>
+      <c r="E33">
+        <v>-6.3306</v>
+      </c>
+      <c r="F33">
+        <v>4.5694</v>
+      </c>
+      <c r="G33">
+        <v>0.637</v>
+      </c>
+      <c r="H33">
+        <v>3.84</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2.81</v>
+      </c>
+      <c r="K33">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L33">
+        <v>2.24</v>
+      </c>
+      <c r="M33">
+        <v>0.07402428</v>
+      </c>
+      <c r="N33">
+        <v>2.16597572</v>
+      </c>
+      <c r="O33">
+        <v>0.7364317448000001</v>
+      </c>
+      <c r="P33">
+        <v>1.4295439752</v>
+      </c>
+      <c r="Q33">
+        <v>1.9995439752</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.101749742847088</v>
+      </c>
+      <c r="T33">
+        <v>1.211738365718735</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.34</v>
+      </c>
+      <c r="W33">
+        <v>0.010692</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>30.26034160683495</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.07329332225964016</v>
+      </c>
+      <c r="C34">
+        <v>11.45839427460312</v>
+      </c>
+      <c r="D34">
+        <v>15.53819427460312</v>
+      </c>
+      <c r="E34">
+        <v>-6.1832</v>
+      </c>
+      <c r="F34">
+        <v>4.7168</v>
+      </c>
+      <c r="G34">
+        <v>0.637</v>
+      </c>
+      <c r="H34">
+        <v>3.84</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2.81</v>
+      </c>
+      <c r="K34">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L34">
+        <v>2.24</v>
+      </c>
+      <c r="M34">
+        <v>0.07641215999999999</v>
+      </c>
+      <c r="N34">
+        <v>2.16358784</v>
+      </c>
+      <c r="O34">
+        <v>0.7356198656000001</v>
+      </c>
+      <c r="P34">
+        <v>1.4279679744</v>
+      </c>
+      <c r="Q34">
+        <v>1.9979679744</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1027527680288826</v>
+      </c>
+      <c r="T34">
+        <v>1.22488501228727</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.34</v>
+      </c>
+      <c r="W34">
+        <v>0.010692</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>29.31470593162136</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.07306480195478965</v>
+      </c>
+      <c r="C35">
+        <v>11.35597538044507</v>
+      </c>
+      <c r="D35">
+        <v>15.58317538044507</v>
+      </c>
+      <c r="E35">
+        <v>-6.0358</v>
+      </c>
+      <c r="F35">
+        <v>4.8642</v>
+      </c>
+      <c r="G35">
+        <v>0.637</v>
+      </c>
+      <c r="H35">
+        <v>3.84</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2.81</v>
+      </c>
+      <c r="K35">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L35">
+        <v>2.24</v>
+      </c>
+      <c r="M35">
+        <v>0.07880004</v>
+      </c>
+      <c r="N35">
+        <v>2.16119996</v>
+      </c>
+      <c r="O35">
+        <v>0.7348079864000001</v>
+      </c>
+      <c r="P35">
+        <v>1.4263919736</v>
+      </c>
+      <c r="Q35">
+        <v>1.9963919736</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1037857342608801</v>
+      </c>
+      <c r="T35">
+        <v>1.238424096066806</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.34</v>
+      </c>
+      <c r="W35">
+        <v>0.010692</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>28.42638150945101</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.07283628164993916</v>
+      </c>
+      <c r="C36">
+        <v>11.25381767160224</v>
+      </c>
+      <c r="D36">
+        <v>15.62841767160224</v>
+      </c>
+      <c r="E36">
+        <v>-5.8884</v>
+      </c>
+      <c r="F36">
+        <v>5.0116</v>
+      </c>
+      <c r="G36">
+        <v>0.637</v>
+      </c>
+      <c r="H36">
+        <v>3.84</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2.81</v>
+      </c>
+      <c r="K36">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L36">
+        <v>2.24</v>
+      </c>
+      <c r="M36">
+        <v>0.08118792</v>
+      </c>
+      <c r="N36">
+        <v>2.15881208</v>
+      </c>
+      <c r="O36">
+        <v>0.7339961072000001</v>
+      </c>
+      <c r="P36">
+        <v>1.4248159728</v>
+      </c>
+      <c r="Q36">
+        <v>1.9948159728</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1048500024999078</v>
+      </c>
+      <c r="T36">
+        <v>1.252373455112388</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.34</v>
+      </c>
+      <c r="W36">
+        <v>0.010692</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>27.5903114650554</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.07260776134508864</v>
+      </c>
+      <c r="C37">
+        <v>11.1519234295793</v>
+      </c>
+      <c r="D37">
+        <v>15.6739234295793</v>
+      </c>
+      <c r="E37">
+        <v>-5.741</v>
+      </c>
+      <c r="F37">
+        <v>5.159000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.637</v>
+      </c>
+      <c r="H37">
+        <v>3.84</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>2.81</v>
+      </c>
+      <c r="K37">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L37">
+        <v>2.24</v>
+      </c>
+      <c r="M37">
+        <v>0.08357580000000001</v>
+      </c>
+      <c r="N37">
+        <v>2.1564242</v>
+      </c>
+      <c r="O37">
+        <v>0.733184228</v>
+      </c>
+      <c r="P37">
+        <v>1.423239972</v>
+      </c>
+      <c r="Q37">
+        <v>1.993239972</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1059470174539825</v>
+      </c>
+      <c r="T37">
+        <v>1.266752025205527</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.34</v>
+      </c>
+      <c r="W37">
+        <v>0.010692</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>26.80201685176809</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.07237924104023813</v>
+      </c>
+      <c r="C38">
+        <v>11.05029496253095</v>
+      </c>
+      <c r="D38">
+        <v>15.71969496253095</v>
+      </c>
+      <c r="E38">
+        <v>-5.5936</v>
+      </c>
+      <c r="F38">
+        <v>5.3064</v>
+      </c>
+      <c r="G38">
+        <v>0.637</v>
+      </c>
+      <c r="H38">
+        <v>3.84</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2.81</v>
+      </c>
+      <c r="K38">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L38">
+        <v>2.24</v>
+      </c>
+      <c r="M38">
+        <v>0.08596368</v>
+      </c>
+      <c r="N38">
+        <v>2.15403632</v>
+      </c>
+      <c r="O38">
+        <v>0.7323723488000001</v>
+      </c>
+      <c r="P38">
+        <v>1.4216639712</v>
+      </c>
+      <c r="Q38">
+        <v>1.9916639712</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1070783141253721</v>
+      </c>
+      <c r="T38">
+        <v>1.281579925614076</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.34</v>
+      </c>
+      <c r="W38">
+        <v>0.010692</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>26.05751638366343</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.0721507207353876</v>
+      </c>
+      <c r="C39">
+        <v>10.94893460565233</v>
+      </c>
+      <c r="D39">
+        <v>15.76573460565233</v>
+      </c>
+      <c r="E39">
+        <v>-5.4462</v>
+      </c>
+      <c r="F39">
+        <v>5.4538</v>
+      </c>
+      <c r="G39">
+        <v>0.637</v>
+      </c>
+      <c r="H39">
+        <v>3.84</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2.81</v>
+      </c>
+      <c r="K39">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L39">
+        <v>2.24</v>
+      </c>
+      <c r="M39">
+        <v>0.08835156</v>
+      </c>
+      <c r="N39">
+        <v>2.15164844</v>
+      </c>
+      <c r="O39">
+        <v>0.7315604696000001</v>
+      </c>
+      <c r="P39">
+        <v>1.4200879704</v>
+      </c>
+      <c r="Q39">
+        <v>1.9900879704</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1082455249768057</v>
+      </c>
+      <c r="T39">
+        <v>1.296878553019722</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.34</v>
+      </c>
+      <c r="W39">
+        <v>0.010692</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>25.35325918410496</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.07192220043053711</v>
+      </c>
+      <c r="C40">
+        <v>10.84784472157607</v>
+      </c>
+      <c r="D40">
+        <v>15.81204472157607</v>
+      </c>
+      <c r="E40">
+        <v>-5.2988</v>
+      </c>
+      <c r="F40">
+        <v>5.6012</v>
+      </c>
+      <c r="G40">
+        <v>0.637</v>
+      </c>
+      <c r="H40">
+        <v>3.84</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2.81</v>
+      </c>
+      <c r="K40">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L40">
+        <v>2.24</v>
+      </c>
+      <c r="M40">
+        <v>0.09073944</v>
+      </c>
+      <c r="N40">
+        <v>2.14926056</v>
+      </c>
+      <c r="O40">
+        <v>0.7307485904000001</v>
+      </c>
+      <c r="P40">
+        <v>1.4185119696</v>
+      </c>
+      <c r="Q40">
+        <v>1.9885119696</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1094503877911889</v>
+      </c>
+      <c r="T40">
+        <v>1.312670684535228</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.34</v>
+      </c>
+      <c r="W40">
+        <v>0.010692</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>24.6860681529443</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.07169368012568658</v>
+      </c>
+      <c r="C41">
+        <v>10.74702770077649</v>
+      </c>
+      <c r="D41">
+        <v>15.85862770077649</v>
+      </c>
+      <c r="E41">
+        <v>-5.1514</v>
+      </c>
+      <c r="F41">
+        <v>5.748600000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.637</v>
+      </c>
+      <c r="H41">
+        <v>3.84</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2.81</v>
+      </c>
+      <c r="K41">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L41">
+        <v>2.24</v>
+      </c>
+      <c r="M41">
+        <v>0.09312732</v>
+      </c>
+      <c r="N41">
+        <v>2.14687268</v>
+      </c>
+      <c r="O41">
+        <v>0.7299367112000001</v>
+      </c>
+      <c r="P41">
+        <v>1.4169359688</v>
+      </c>
+      <c r="Q41">
+        <v>1.9869359688</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1106947543044042</v>
+      </c>
+      <c r="T41">
+        <v>1.328980590854521</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.34</v>
+      </c>
+      <c r="W41">
+        <v>0.010692</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>24.05309204645855</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.07146515982083607</v>
+      </c>
+      <c r="C42">
+        <v>10.64648596198091</v>
+      </c>
+      <c r="D42">
+        <v>15.90548596198091</v>
+      </c>
+      <c r="E42">
+        <v>-5.004</v>
+      </c>
+      <c r="F42">
+        <v>5.896000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.637</v>
+      </c>
+      <c r="H42">
+        <v>3.84</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2.81</v>
+      </c>
+      <c r="K42">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L42">
+        <v>2.24</v>
+      </c>
+      <c r="M42">
+        <v>0.09551520000000001</v>
+      </c>
+      <c r="N42">
+        <v>2.1444848</v>
+      </c>
+      <c r="O42">
+        <v>0.7291248320000001</v>
+      </c>
+      <c r="P42">
+        <v>1.415359968</v>
+      </c>
+      <c r="Q42">
+        <v>1.985359968</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1119805997013935</v>
+      </c>
+      <c r="T42">
+        <v>1.34583416071779</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.34</v>
+      </c>
+      <c r="W42">
+        <v>0.010692</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>23.45176474529708</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.07123663951598555</v>
+      </c>
+      <c r="C43">
+        <v>10.54622195258828</v>
+      </c>
+      <c r="D43">
+        <v>15.95262195258828</v>
+      </c>
+      <c r="E43">
+        <v>-4.8566</v>
+      </c>
+      <c r="F43">
+        <v>6.0434</v>
+      </c>
+      <c r="G43">
+        <v>0.637</v>
+      </c>
+      <c r="H43">
+        <v>3.84</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2.81</v>
+      </c>
+      <c r="K43">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L43">
+        <v>2.24</v>
+      </c>
+      <c r="M43">
+        <v>0.09790307999999999</v>
+      </c>
+      <c r="N43">
+        <v>2.14209692</v>
+      </c>
+      <c r="O43">
+        <v>0.7283129528000001</v>
+      </c>
+      <c r="P43">
+        <v>1.4137839672</v>
+      </c>
+      <c r="Q43">
+        <v>1.9837839672</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1133100330779416</v>
+      </c>
+      <c r="T43">
+        <v>1.363259038034052</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.34</v>
+      </c>
+      <c r="W43">
+        <v>0.010692</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>22.87977048321667</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.07100811921113506</v>
+      </c>
+      <c r="C44">
+        <v>10.44623814909533</v>
+      </c>
+      <c r="D44">
+        <v>16.00003814909532</v>
+      </c>
+      <c r="E44">
+        <v>-4.7092</v>
+      </c>
+      <c r="F44">
+        <v>6.1908</v>
+      </c>
+      <c r="G44">
+        <v>0.637</v>
+      </c>
+      <c r="H44">
+        <v>3.84</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2.81</v>
+      </c>
+      <c r="K44">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L44">
+        <v>2.24</v>
+      </c>
+      <c r="M44">
+        <v>0.10029096</v>
+      </c>
+      <c r="N44">
+        <v>2.13970904</v>
+      </c>
+      <c r="O44">
+        <v>0.7275010736</v>
+      </c>
+      <c r="P44">
+        <v>1.4122079664</v>
+      </c>
+      <c r="Q44">
+        <v>1.9822079664</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1146853089847156</v>
+      </c>
+      <c r="T44">
+        <v>1.381284773188805</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.34</v>
+      </c>
+      <c r="W44">
+        <v>0.010692</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>22.33501404314008</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.07077959890628455</v>
+      </c>
+      <c r="C45">
+        <v>10.34653705753024</v>
+      </c>
+      <c r="D45">
+        <v>16.04773705753024</v>
+      </c>
+      <c r="E45">
+        <v>-4.561800000000001</v>
+      </c>
+      <c r="F45">
+        <v>6.3382</v>
+      </c>
+      <c r="G45">
+        <v>0.637</v>
+      </c>
+      <c r="H45">
+        <v>3.84</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2.81</v>
+      </c>
+      <c r="K45">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L45">
+        <v>2.24</v>
+      </c>
+      <c r="M45">
+        <v>0.10267884</v>
+      </c>
+      <c r="N45">
+        <v>2.13732116</v>
+      </c>
+      <c r="O45">
+        <v>0.7266891944000002</v>
+      </c>
+      <c r="P45">
+        <v>1.4106319656</v>
+      </c>
+      <c r="Q45">
+        <v>1.9806319656</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1161088401864641</v>
+      </c>
+      <c r="T45">
+        <v>1.399942990278813</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.34</v>
+      </c>
+      <c r="W45">
+        <v>0.010692</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>21.81559511190427</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.07055107860143403</v>
+      </c>
+      <c r="C46">
+        <v>10.2471212138942</v>
+      </c>
+      <c r="D46">
+        <v>16.0957212138942</v>
+      </c>
+      <c r="E46">
+        <v>-4.414400000000001</v>
+      </c>
+      <c r="F46">
+        <v>6.4856</v>
+      </c>
+      <c r="G46">
+        <v>0.637</v>
+      </c>
+      <c r="H46">
+        <v>3.84</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2.81</v>
+      </c>
+      <c r="K46">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L46">
+        <v>2.24</v>
+      </c>
+      <c r="M46">
+        <v>0.10506672</v>
+      </c>
+      <c r="N46">
+        <v>2.13493328</v>
+      </c>
+      <c r="O46">
+        <v>0.7258773152000001</v>
+      </c>
+      <c r="P46">
+        <v>1.4090559648</v>
+      </c>
+      <c r="Q46">
+        <v>1.9790559648</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.117583211788275</v>
+      </c>
+      <c r="T46">
+        <v>1.419267572264892</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.34</v>
+      </c>
+      <c r="W46">
+        <v>0.010692</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>21.31978613208826</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.07032255829658351</v>
+      </c>
+      <c r="C47">
+        <v>10.14799318461081</v>
+      </c>
+      <c r="D47">
+        <v>16.14399318461081</v>
+      </c>
+      <c r="E47">
+        <v>-4.267</v>
+      </c>
+      <c r="F47">
+        <v>6.633</v>
+      </c>
+      <c r="G47">
+        <v>0.637</v>
+      </c>
+      <c r="H47">
+        <v>3.84</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2.81</v>
+      </c>
+      <c r="K47">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L47">
+        <v>2.24</v>
+      </c>
+      <c r="M47">
+        <v>0.1074546</v>
+      </c>
+      <c r="N47">
+        <v>2.1325454</v>
+      </c>
+      <c r="O47">
+        <v>0.7250654360000001</v>
+      </c>
+      <c r="P47">
+        <v>1.407479964</v>
+      </c>
+      <c r="Q47">
+        <v>1.977479964</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1191111969028791</v>
+      </c>
+      <c r="T47">
+        <v>1.439294866323192</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.34</v>
+      </c>
+      <c r="W47">
+        <v>0.010692</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>20.84601310693074</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.07009403799173301</v>
+      </c>
+      <c r="C48">
+        <v>10.0491555669837</v>
+      </c>
+      <c r="D48">
+        <v>16.1925555669837</v>
+      </c>
+      <c r="E48">
+        <v>-4.1196</v>
+      </c>
+      <c r="F48">
+        <v>6.7804</v>
+      </c>
+      <c r="G48">
+        <v>0.637</v>
+      </c>
+      <c r="H48">
+        <v>3.84</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2.81</v>
+      </c>
+      <c r="K48">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L48">
+        <v>2.24</v>
+      </c>
+      <c r="M48">
+        <v>0.10984248</v>
+      </c>
+      <c r="N48">
+        <v>2.13015752</v>
+      </c>
+      <c r="O48">
+        <v>0.7242535568</v>
+      </c>
+      <c r="P48">
+        <v>1.4059039632</v>
+      </c>
+      <c r="Q48">
+        <v>1.9759039632</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1206957740587648</v>
+      </c>
+      <c r="T48">
+        <v>1.460063912013282</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.34</v>
+      </c>
+      <c r="W48">
+        <v>0.010692</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>20.39283890895399</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.0698655176868825</v>
+      </c>
+      <c r="C49">
+        <v>9.950610989662337</v>
+      </c>
+      <c r="D49">
+        <v>16.24141098966234</v>
+      </c>
+      <c r="E49">
+        <v>-3.9722</v>
+      </c>
+      <c r="F49">
+        <v>6.9278</v>
+      </c>
+      <c r="G49">
+        <v>0.637</v>
+      </c>
+      <c r="H49">
+        <v>3.84</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2.81</v>
+      </c>
+      <c r="K49">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L49">
+        <v>2.24</v>
+      </c>
+      <c r="M49">
+        <v>0.11223036</v>
+      </c>
+      <c r="N49">
+        <v>2.12776964</v>
+      </c>
+      <c r="O49">
+        <v>0.7234416776000002</v>
+      </c>
+      <c r="P49">
+        <v>1.4043279624</v>
+      </c>
+      <c r="Q49">
+        <v>1.9743279624</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1223401465790236</v>
+      </c>
+      <c r="T49">
+        <v>1.481616695276582</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.34</v>
+      </c>
+      <c r="W49">
+        <v>0.010692</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>19.95894871940177</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06963699738203197</v>
+      </c>
+      <c r="C50">
+        <v>9.852362113116364</v>
+      </c>
+      <c r="D50">
+        <v>16.29056211311636</v>
+      </c>
+      <c r="E50">
+        <v>-3.824800000000001</v>
+      </c>
+      <c r="F50">
+        <v>7.0752</v>
+      </c>
+      <c r="G50">
+        <v>0.637</v>
+      </c>
+      <c r="H50">
+        <v>3.84</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2.81</v>
+      </c>
+      <c r="K50">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L50">
+        <v>2.24</v>
+      </c>
+      <c r="M50">
+        <v>0.11461824</v>
+      </c>
+      <c r="N50">
+        <v>2.12538176</v>
+      </c>
+      <c r="O50">
+        <v>0.7226297984000001</v>
+      </c>
+      <c r="P50">
+        <v>1.4027519616</v>
+      </c>
+      <c r="Q50">
+        <v>1.9727519616</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1240477641962153</v>
+      </c>
+      <c r="T50">
+        <v>1.503998431742317</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.34</v>
+      </c>
+      <c r="W50">
+        <v>0.010692</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>19.54313728774757</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06940847707718145</v>
+      </c>
+      <c r="C51">
+        <v>9.754411630118511</v>
+      </c>
+      <c r="D51">
+        <v>16.34001163011851</v>
+      </c>
+      <c r="E51">
+        <v>-3.6774</v>
+      </c>
+      <c r="F51">
+        <v>7.2226</v>
+      </c>
+      <c r="G51">
+        <v>0.637</v>
+      </c>
+      <c r="H51">
+        <v>3.84</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2.81</v>
+      </c>
+      <c r="K51">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L51">
+        <v>2.24</v>
+      </c>
+      <c r="M51">
+        <v>0.11700612</v>
+      </c>
+      <c r="N51">
+        <v>2.12299388</v>
+      </c>
+      <c r="O51">
+        <v>0.7218179192</v>
+      </c>
+      <c r="P51">
+        <v>1.4011759608</v>
+      </c>
+      <c r="Q51">
+        <v>1.9711759608</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1258223472101597</v>
+      </c>
+      <c r="T51">
+        <v>1.527257883363571</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.34</v>
+      </c>
+      <c r="W51">
+        <v>0.010692</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>19.14429775126293</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.06917995677233095</v>
+      </c>
+      <c r="C52">
+        <v>9.656762266236385</v>
+      </c>
+      <c r="D52">
+        <v>16.38976226623639</v>
+      </c>
+      <c r="E52">
+        <v>-3.53</v>
+      </c>
+      <c r="F52">
+        <v>7.37</v>
+      </c>
+      <c r="G52">
+        <v>0.637</v>
+      </c>
+      <c r="H52">
+        <v>3.84</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2.81</v>
+      </c>
+      <c r="K52">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L52">
+        <v>2.24</v>
+      </c>
+      <c r="M52">
+        <v>0.119394</v>
+      </c>
+      <c r="N52">
+        <v>2.120606</v>
+      </c>
+      <c r="O52">
+        <v>0.7210060400000002</v>
+      </c>
+      <c r="P52">
+        <v>1.39959996</v>
+      </c>
+      <c r="Q52">
+        <v>1.96959996</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1276679135446619</v>
+      </c>
+      <c r="T52">
+        <v>1.551447713049675</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.34</v>
+      </c>
+      <c r="W52">
+        <v>0.010692</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>18.76141179623767</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.06895143646748043</v>
+      </c>
+      <c r="C53">
+        <v>9.559416780333267</v>
+      </c>
+      <c r="D53">
+        <v>16.43981678033327</v>
+      </c>
+      <c r="E53">
+        <v>-3.3826</v>
+      </c>
+      <c r="F53">
+        <v>7.5174</v>
+      </c>
+      <c r="G53">
+        <v>0.637</v>
+      </c>
+      <c r="H53">
+        <v>3.84</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2.81</v>
+      </c>
+      <c r="K53">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L53">
+        <v>2.24</v>
+      </c>
+      <c r="M53">
+        <v>0.12178188</v>
+      </c>
+      <c r="N53">
+        <v>2.11821812</v>
+      </c>
+      <c r="O53">
+        <v>0.7201941608000002</v>
+      </c>
+      <c r="P53">
+        <v>1.3980239592</v>
+      </c>
+      <c r="Q53">
+        <v>1.9680239592</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.129588809117307</v>
+      </c>
+      <c r="T53">
+        <v>1.576624882722967</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.34</v>
+      </c>
+      <c r="W53">
+        <v>0.010692</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>18.3935409767036</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.06872291616262992</v>
+      </c>
+      <c r="C54">
+        <v>9.462377965078055</v>
+      </c>
+      <c r="D54">
+        <v>16.49017796507805</v>
+      </c>
+      <c r="E54">
+        <v>-3.2352</v>
+      </c>
+      <c r="F54">
+        <v>7.664800000000001</v>
+      </c>
+      <c r="G54">
+        <v>0.637</v>
+      </c>
+      <c r="H54">
+        <v>3.84</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2.81</v>
+      </c>
+      <c r="K54">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L54">
+        <v>2.24</v>
+      </c>
+      <c r="M54">
+        <v>0.12416976</v>
+      </c>
+      <c r="N54">
+        <v>2.11583024</v>
+      </c>
+      <c r="O54">
+        <v>0.7193822816000002</v>
+      </c>
+      <c r="P54">
+        <v>1.3964479584</v>
+      </c>
+      <c r="Q54">
+        <v>1.9664479584</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.131589742005479</v>
+      </c>
+      <c r="T54">
+        <v>1.602851101132646</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.34</v>
+      </c>
+      <c r="W54">
+        <v>0.010692</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>18.03981903484391</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.06849439585777942</v>
+      </c>
+      <c r="C55">
+        <v>9.365648647464674</v>
+      </c>
+      <c r="D55">
+        <v>16.54084864746467</v>
+      </c>
+      <c r="E55">
+        <v>-3.0878</v>
+      </c>
+      <c r="F55">
+        <v>7.812200000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.637</v>
+      </c>
+      <c r="H55">
+        <v>3.84</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2.81</v>
+      </c>
+      <c r="K55">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L55">
+        <v>2.24</v>
+      </c>
+      <c r="M55">
+        <v>0.12655764</v>
+      </c>
+      <c r="N55">
+        <v>2.11344236</v>
+      </c>
+      <c r="O55">
+        <v>0.7185704024</v>
+      </c>
+      <c r="P55">
+        <v>1.3948719576</v>
+      </c>
+      <c r="Q55">
+        <v>1.9648719576</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1336758209739987</v>
+      </c>
+      <c r="T55">
+        <v>1.630193328836354</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.34</v>
+      </c>
+      <c r="W55">
+        <v>0.010692</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>17.69944509079025</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.0682658755529289</v>
+      </c>
+      <c r="C56">
+        <v>9.269231689341073</v>
+      </c>
+      <c r="D56">
+        <v>16.59183168934107</v>
+      </c>
+      <c r="E56">
+        <v>-2.940399999999999</v>
+      </c>
+      <c r="F56">
+        <v>7.959600000000001</v>
+      </c>
+      <c r="G56">
+        <v>0.637</v>
+      </c>
+      <c r="H56">
+        <v>3.84</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2.81</v>
+      </c>
+      <c r="K56">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L56">
+        <v>2.24</v>
+      </c>
+      <c r="M56">
+        <v>0.12894552</v>
+      </c>
+      <c r="N56">
+        <v>2.11105448</v>
+      </c>
+      <c r="O56">
+        <v>0.7177585232000002</v>
+      </c>
+      <c r="P56">
+        <v>1.3932959568</v>
+      </c>
+      <c r="Q56">
+        <v>1.9632959568</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1358525990281063</v>
+      </c>
+      <c r="T56">
+        <v>1.658724349048919</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.34</v>
+      </c>
+      <c r="W56">
+        <v>0.010692</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>17.37167758910895</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.06803735524807838</v>
+      </c>
+      <c r="C57">
+        <v>9.173129987948021</v>
+      </c>
+      <c r="D57">
+        <v>16.64312998794802</v>
+      </c>
+      <c r="E57">
+        <v>-2.792999999999999</v>
+      </c>
+      <c r="F57">
+        <v>8.107000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.637</v>
+      </c>
+      <c r="H57">
+        <v>3.84</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2.81</v>
+      </c>
+      <c r="K57">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L57">
+        <v>2.24</v>
+      </c>
+      <c r="M57">
+        <v>0.1313334</v>
+      </c>
+      <c r="N57">
+        <v>2.1086666</v>
+      </c>
+      <c r="O57">
+        <v>0.7169466440000002</v>
+      </c>
+      <c r="P57">
+        <v>1.391719956</v>
+      </c>
+      <c r="Q57">
+        <v>1.961719956</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1381261227735075</v>
+      </c>
+      <c r="T57">
+        <v>1.688523414604265</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.34</v>
+      </c>
+      <c r="W57">
+        <v>0.010692</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>17.05582890567061</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.06780883494322787</v>
+      </c>
+      <c r="C58">
+        <v>9.077346476467927</v>
+      </c>
+      <c r="D58">
+        <v>16.69474647646793</v>
+      </c>
+      <c r="E58">
+        <v>-2.6456</v>
+      </c>
+      <c r="F58">
+        <v>8.2544</v>
+      </c>
+      <c r="G58">
+        <v>0.637</v>
+      </c>
+      <c r="H58">
+        <v>3.84</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2.81</v>
+      </c>
+      <c r="K58">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L58">
+        <v>2.24</v>
+      </c>
+      <c r="M58">
+        <v>0.13372128</v>
+      </c>
+      <c r="N58">
+        <v>2.10627872</v>
+      </c>
+      <c r="O58">
+        <v>0.7161347648000002</v>
+      </c>
+      <c r="P58">
+        <v>1.3901439552</v>
+      </c>
+      <c r="Q58">
+        <v>1.9601439552</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1405029885073361</v>
+      </c>
+      <c r="T58">
+        <v>1.719676983139399</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.34</v>
+      </c>
+      <c r="W58">
+        <v>0.010692</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>16.75126053235506</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.06758031463837737</v>
+      </c>
+      <c r="C59">
+        <v>8.981884124583939</v>
+      </c>
+      <c r="D59">
+        <v>16.74668412458394</v>
+      </c>
+      <c r="E59">
+        <v>-2.498199999999999</v>
+      </c>
+      <c r="F59">
+        <v>8.401800000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.637</v>
+      </c>
+      <c r="H59">
+        <v>3.84</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2.81</v>
+      </c>
+      <c r="K59">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L59">
+        <v>2.24</v>
+      </c>
+      <c r="M59">
+        <v>0.13610916</v>
+      </c>
+      <c r="N59">
+        <v>2.10389084</v>
+      </c>
+      <c r="O59">
+        <v>0.7153228856</v>
+      </c>
+      <c r="P59">
+        <v>1.3885679544</v>
+      </c>
+      <c r="Q59">
+        <v>1.9585679544</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1429904061357613</v>
+      </c>
+      <c r="T59">
+        <v>1.752279554862214</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.34</v>
+      </c>
+      <c r="W59">
+        <v>0.010692</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>16.45737876862953</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.06735179433352685</v>
+      </c>
+      <c r="C60">
+        <v>8.886745939049476</v>
+      </c>
+      <c r="D60">
+        <v>16.79894593904947</v>
+      </c>
+      <c r="E60">
+        <v>-2.350800000000001</v>
+      </c>
+      <c r="F60">
+        <v>8.549199999999999</v>
+      </c>
+      <c r="G60">
+        <v>0.637</v>
+      </c>
+      <c r="H60">
+        <v>3.84</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2.81</v>
+      </c>
+      <c r="K60">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L60">
+        <v>2.24</v>
+      </c>
+      <c r="M60">
+        <v>0.13849704</v>
+      </c>
+      <c r="N60">
+        <v>2.10150296</v>
+      </c>
+      <c r="O60">
+        <v>0.7145110064000002</v>
+      </c>
+      <c r="P60">
+        <v>1.3869919536</v>
+      </c>
+      <c r="Q60">
+        <v>1.9569919536</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.145596272222683</v>
+      </c>
+      <c r="T60">
+        <v>1.7864346300004</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.34</v>
+      </c>
+      <c r="W60">
+        <v>0.010692</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>16.17363085882558</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.06712327402867634</v>
+      </c>
+      <c r="C61">
+        <v>8.791934964268453</v>
+      </c>
+      <c r="D61">
+        <v>16.85153496426845</v>
+      </c>
+      <c r="E61">
+        <v>-2.2034</v>
+      </c>
+      <c r="F61">
+        <v>8.6966</v>
+      </c>
+      <c r="G61">
+        <v>0.637</v>
+      </c>
+      <c r="H61">
+        <v>3.84</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2.81</v>
+      </c>
+      <c r="K61">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L61">
+        <v>2.24</v>
+      </c>
+      <c r="M61">
+        <v>0.14088492</v>
+      </c>
+      <c r="N61">
+        <v>2.09911508</v>
+      </c>
+      <c r="O61">
+        <v>0.7136991272000002</v>
+      </c>
+      <c r="P61">
+        <v>1.3854159528</v>
+      </c>
+      <c r="Q61">
+        <v>1.9554159528</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1483292537284789</v>
+      </c>
+      <c r="T61">
+        <v>1.82225580636484</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.34</v>
+      </c>
+      <c r="W61">
+        <v>0.010692</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>15.89950152223531</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.06689475372382583</v>
+      </c>
+      <c r="C62">
+        <v>8.697454282886495</v>
+      </c>
+      <c r="D62">
+        <v>16.90445428288649</v>
+      </c>
+      <c r="E62">
+        <v>-2.056000000000001</v>
+      </c>
+      <c r="F62">
+        <v>8.843999999999999</v>
+      </c>
+      <c r="G62">
+        <v>0.637</v>
+      </c>
+      <c r="H62">
+        <v>3.84</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>2.81</v>
+      </c>
+      <c r="K62">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L62">
+        <v>2.24</v>
+      </c>
+      <c r="M62">
+        <v>0.1432728</v>
+      </c>
+      <c r="N62">
+        <v>2.0967272</v>
+      </c>
+      <c r="O62">
+        <v>0.7128872480000001</v>
+      </c>
+      <c r="P62">
+        <v>1.383839952</v>
+      </c>
+      <c r="Q62">
+        <v>1.953839952</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1511988843095646</v>
+      </c>
+      <c r="T62">
+        <v>1.859868041547502</v>
+      </c>
+      <c r="U62">
+        <v>0.0162</v>
+      </c>
+      <c r="V62">
+        <v>0.34</v>
+      </c>
+      <c r="W62">
+        <v>0.010692</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>15.63450983019806</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.06666623341897532</v>
+      </c>
+      <c r="C63">
+        <v>8.603307016393247</v>
+      </c>
+      <c r="D63">
+        <v>16.95770701639325</v>
+      </c>
+      <c r="E63">
+        <v>-1.9086</v>
+      </c>
+      <c r="F63">
+        <v>8.991400000000001</v>
+      </c>
+      <c r="G63">
+        <v>0.637</v>
+      </c>
+      <c r="H63">
+        <v>3.84</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2.81</v>
+      </c>
+      <c r="K63">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L63">
+        <v>2.24</v>
+      </c>
+      <c r="M63">
+        <v>0.14566068</v>
+      </c>
+      <c r="N63">
+        <v>2.09433932</v>
+      </c>
+      <c r="O63">
+        <v>0.7120753688000002</v>
+      </c>
+      <c r="P63">
+        <v>1.3822639512</v>
+      </c>
+      <c r="Q63">
+        <v>1.9522639512</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1542156754332701</v>
+      </c>
+      <c r="T63">
+        <v>1.899409109303634</v>
+      </c>
+      <c r="U63">
+        <v>0.0162</v>
+      </c>
+      <c r="V63">
+        <v>0.34</v>
+      </c>
+      <c r="W63">
+        <v>0.010692</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>15.37820639035875</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.0664377131141248</v>
+      </c>
+      <c r="C64">
+        <v>8.509496325736166</v>
+      </c>
+      <c r="D64">
+        <v>17.01129632573616</v>
+      </c>
+      <c r="E64">
+        <v>-1.761200000000001</v>
+      </c>
+      <c r="F64">
+        <v>9.1388</v>
+      </c>
+      <c r="G64">
+        <v>0.637</v>
+      </c>
+      <c r="H64">
+        <v>3.84</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>2.81</v>
+      </c>
+      <c r="K64">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L64">
+        <v>2.24</v>
+      </c>
+      <c r="M64">
+        <v>0.14804856</v>
+      </c>
+      <c r="N64">
+        <v>2.09195144</v>
+      </c>
+      <c r="O64">
+        <v>0.7112634896000002</v>
+      </c>
+      <c r="P64">
+        <v>1.3806879504</v>
+      </c>
+      <c r="Q64">
+        <v>1.9506879504</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1573912450371705</v>
+      </c>
+      <c r="T64">
+        <v>1.941031285889035</v>
+      </c>
+      <c r="U64">
+        <v>0.0162</v>
+      </c>
+      <c r="V64">
+        <v>0.34</v>
+      </c>
+      <c r="W64">
+        <v>0.010692</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>15.13017080341748</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.06620919280927429</v>
+      </c>
+      <c r="C65">
+        <v>8.416025411945956</v>
+      </c>
+      <c r="D65">
+        <v>17.06522541194596</v>
+      </c>
+      <c r="E65">
+        <v>-1.613799999999999</v>
+      </c>
+      <c r="F65">
+        <v>9.286200000000001</v>
+      </c>
+      <c r="G65">
+        <v>0.637</v>
+      </c>
+      <c r="H65">
+        <v>3.84</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>2.81</v>
+      </c>
+      <c r="K65">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L65">
+        <v>2.24</v>
+      </c>
+      <c r="M65">
+        <v>0.15043644</v>
+      </c>
+      <c r="N65">
+        <v>2.08956356</v>
+      </c>
+      <c r="O65">
+        <v>0.7104516104000002</v>
+      </c>
+      <c r="P65">
+        <v>1.3791119496</v>
+      </c>
+      <c r="Q65">
+        <v>1.9491119496</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1607384670520927</v>
+      </c>
+      <c r="T65">
+        <v>1.984903309857432</v>
+      </c>
+      <c r="U65">
+        <v>0.0162</v>
+      </c>
+      <c r="V65">
+        <v>0.34</v>
+      </c>
+      <c r="W65">
+        <v>0.010692</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>14.89000936209339</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.06598067250442378</v>
+      </c>
+      <c r="C66">
+        <v>8.322897516773944</v>
+      </c>
+      <c r="D66">
+        <v>17.11949751677394</v>
+      </c>
+      <c r="E66">
+        <v>-1.4664</v>
+      </c>
+      <c r="F66">
+        <v>9.4336</v>
+      </c>
+      <c r="G66">
+        <v>0.637</v>
+      </c>
+      <c r="H66">
+        <v>3.84</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>2.81</v>
+      </c>
+      <c r="K66">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L66">
+        <v>2.24</v>
+      </c>
+      <c r="M66">
+        <v>0.15282432</v>
+      </c>
+      <c r="N66">
+        <v>2.08717568</v>
+      </c>
+      <c r="O66">
+        <v>0.7096397312000001</v>
+      </c>
+      <c r="P66">
+        <v>1.3775359488</v>
+      </c>
+      <c r="Q66">
+        <v>1.9475359488</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1642716458456216</v>
+      </c>
+      <c r="T66">
+        <v>2.031212668490739</v>
+      </c>
+      <c r="U66">
+        <v>0.0162</v>
+      </c>
+      <c r="V66">
+        <v>0.34</v>
+      </c>
+      <c r="W66">
+        <v>0.010692</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>14.65735296581068</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.06575215219957327</v>
+      </c>
+      <c r="C67">
+        <v>8.230115923341673</v>
+      </c>
+      <c r="D67">
+        <v>17.17411592334167</v>
+      </c>
+      <c r="E67">
+        <v>-1.318999999999999</v>
+      </c>
+      <c r="F67">
+        <v>9.581000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.637</v>
+      </c>
+      <c r="H67">
+        <v>3.84</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>2.81</v>
+      </c>
+      <c r="K67">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L67">
+        <v>2.24</v>
+      </c>
+      <c r="M67">
+        <v>0.1552122</v>
+      </c>
+      <c r="N67">
+        <v>2.0847878</v>
+      </c>
+      <c r="O67">
+        <v>0.7088278520000001</v>
+      </c>
+      <c r="P67">
+        <v>1.375959948</v>
+      </c>
+      <c r="Q67">
+        <v>1.945959948</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1680067205702094</v>
+      </c>
+      <c r="T67">
+        <v>2.080168276188807</v>
+      </c>
+      <c r="U67">
+        <v>0.0162</v>
+      </c>
+      <c r="V67">
+        <v>0.34</v>
+      </c>
+      <c r="W67">
+        <v>0.010692</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>14.43185522787513</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.06552363189472275</v>
+      </c>
+      <c r="C68">
+        <v>8.137683956802956</v>
+      </c>
+      <c r="D68">
+        <v>17.22908395680296</v>
+      </c>
+      <c r="E68">
+        <v>-1.1716</v>
+      </c>
+      <c r="F68">
+        <v>9.728400000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.637</v>
+      </c>
+      <c r="H68">
+        <v>3.84</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2.81</v>
+      </c>
+      <c r="K68">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L68">
+        <v>2.24</v>
+      </c>
+      <c r="M68">
+        <v>0.15760008</v>
+      </c>
+      <c r="N68">
+        <v>2.08239992</v>
+      </c>
+      <c r="O68">
+        <v>0.7080159728000002</v>
+      </c>
+      <c r="P68">
+        <v>1.3743839472</v>
+      </c>
+      <c r="Q68">
+        <v>1.9443839472</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.171961505572714</v>
+      </c>
+      <c r="T68">
+        <v>2.132003625516173</v>
+      </c>
+      <c r="U68">
+        <v>0.0162</v>
+      </c>
+      <c r="V68">
+        <v>0.34</v>
+      </c>
+      <c r="W68">
+        <v>0.010692</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>14.21319075472551</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.06529511158987225</v>
+      </c>
+      <c r="C69">
+        <v>8.045604985018644</v>
+      </c>
+      <c r="D69">
+        <v>17.28440498501864</v>
+      </c>
+      <c r="E69">
+        <v>-1.0242</v>
+      </c>
+      <c r="F69">
+        <v>9.8758</v>
+      </c>
+      <c r="G69">
+        <v>0.637</v>
+      </c>
+      <c r="H69">
+        <v>3.84</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2.81</v>
+      </c>
+      <c r="K69">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L69">
+        <v>2.24</v>
+      </c>
+      <c r="M69">
+        <v>0.15998796</v>
+      </c>
+      <c r="N69">
+        <v>2.08001204</v>
+      </c>
+      <c r="O69">
+        <v>0.7072040936000001</v>
+      </c>
+      <c r="P69">
+        <v>1.3728079464</v>
+      </c>
+      <c r="Q69">
+        <v>1.9428079464</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1761559745147644</v>
+      </c>
+      <c r="T69">
+        <v>2.186980511166409</v>
+      </c>
+      <c r="U69">
+        <v>0.0162</v>
+      </c>
+      <c r="V69">
+        <v>0.34</v>
+      </c>
+      <c r="W69">
+        <v>0.010692</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>14.00105357928184</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.06506659128502172</v>
+      </c>
+      <c r="C70">
+        <v>7.953882419244549</v>
+      </c>
+      <c r="D70">
+        <v>17.34008241924455</v>
+      </c>
+      <c r="E70">
+        <v>-0.8767999999999994</v>
+      </c>
+      <c r="F70">
+        <v>10.0232</v>
+      </c>
+      <c r="G70">
+        <v>0.637</v>
+      </c>
+      <c r="H70">
+        <v>3.84</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2.81</v>
+      </c>
+      <c r="K70">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L70">
+        <v>2.24</v>
+      </c>
+      <c r="M70">
+        <v>0.16237584</v>
+      </c>
+      <c r="N70">
+        <v>2.07762416</v>
+      </c>
+      <c r="O70">
+        <v>0.7063922144000001</v>
+      </c>
+      <c r="P70">
+        <v>1.3712319456</v>
+      </c>
+      <c r="Q70">
+        <v>1.9412319456</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1806125977656929</v>
+      </c>
+      <c r="T70">
+        <v>2.245393452169786</v>
+      </c>
+      <c r="U70">
+        <v>0.0162</v>
+      </c>
+      <c r="V70">
+        <v>0.34</v>
+      </c>
+      <c r="W70">
+        <v>0.010692</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>13.7951557325277</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.06556671098017121</v>
+      </c>
+      <c r="C71">
+        <v>7.685094861749512</v>
+      </c>
+      <c r="D71">
+        <v>17.21869486174951</v>
+      </c>
+      <c r="E71">
+        <v>-0.7294</v>
+      </c>
+      <c r="F71">
+        <v>10.1706</v>
+      </c>
+      <c r="G71">
+        <v>0.637</v>
+      </c>
+      <c r="H71">
+        <v>3.84</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2.81</v>
+      </c>
+      <c r="K71">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L71">
+        <v>2.24</v>
+      </c>
+      <c r="M71">
+        <v>0.18103668</v>
+      </c>
+      <c r="N71">
+        <v>2.05896332</v>
+      </c>
+      <c r="O71">
+        <v>0.7000475288000001</v>
+      </c>
+      <c r="P71">
+        <v>1.3589157912</v>
+      </c>
+      <c r="Q71">
+        <v>1.9289157912</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1853567450973265</v>
+      </c>
+      <c r="T71">
+        <v>2.30757497001209</v>
+      </c>
+      <c r="U71">
+        <v>0.0178</v>
+      </c>
+      <c r="V71">
+        <v>0.34</v>
+      </c>
+      <c r="W71">
+        <v>0.011748</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>12.37318315824174</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.0653487506753207</v>
+      </c>
+      <c r="C72">
+        <v>7.590387956226781</v>
+      </c>
+      <c r="D72">
+        <v>17.27138795622678</v>
+      </c>
+      <c r="E72">
+        <v>-0.581999999999999</v>
+      </c>
+      <c r="F72">
+        <v>10.318</v>
+      </c>
+      <c r="G72">
+        <v>0.637</v>
+      </c>
+      <c r="H72">
+        <v>3.84</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2.81</v>
+      </c>
+      <c r="K72">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L72">
+        <v>2.24</v>
+      </c>
+      <c r="M72">
+        <v>0.1836604</v>
+      </c>
+      <c r="N72">
+        <v>2.0563396</v>
+      </c>
+      <c r="O72">
+        <v>0.6991554640000002</v>
+      </c>
+      <c r="P72">
+        <v>1.357184136</v>
+      </c>
+      <c r="Q72">
+        <v>1.927184136</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1904171689177357</v>
+      </c>
+      <c r="T72">
+        <v>2.373901922377213</v>
+      </c>
+      <c r="U72">
+        <v>0.0178</v>
+      </c>
+      <c r="V72">
+        <v>0.34</v>
+      </c>
+      <c r="W72">
+        <v>0.011748</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>12.19642339883829</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.0651307903704702</v>
+      </c>
+      <c r="C73">
+        <v>7.49600454620909</v>
+      </c>
+      <c r="D73">
+        <v>17.32440454620909</v>
+      </c>
+      <c r="E73">
+        <v>-0.4346000000000014</v>
+      </c>
+      <c r="F73">
+        <v>10.4654</v>
+      </c>
+      <c r="G73">
+        <v>0.637</v>
+      </c>
+      <c r="H73">
+        <v>3.84</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2.81</v>
+      </c>
+      <c r="K73">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L73">
+        <v>2.24</v>
+      </c>
+      <c r="M73">
+        <v>0.18628412</v>
+      </c>
+      <c r="N73">
+        <v>2.05371588</v>
+      </c>
+      <c r="O73">
+        <v>0.6982633992000001</v>
+      </c>
+      <c r="P73">
+        <v>1.3554524808</v>
+      </c>
+      <c r="Q73">
+        <v>1.9254524808</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.19582658748438</v>
+      </c>
+      <c r="T73">
+        <v>2.444803147319242</v>
+      </c>
+      <c r="U73">
+        <v>0.0178</v>
+      </c>
+      <c r="V73">
+        <v>0.34</v>
+      </c>
+      <c r="W73">
+        <v>0.011748</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>12.02464278758705</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.06491283006561968</v>
+      </c>
+      <c r="C74">
+        <v>7.401947619893441</v>
+      </c>
+      <c r="D74">
+        <v>17.37774761989344</v>
+      </c>
+      <c r="E74">
+        <v>-0.2872000000000003</v>
+      </c>
+      <c r="F74">
+        <v>10.6128</v>
+      </c>
+      <c r="G74">
+        <v>0.637</v>
+      </c>
+      <c r="H74">
+        <v>3.84</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2.81</v>
+      </c>
+      <c r="K74">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L74">
+        <v>2.24</v>
+      </c>
+      <c r="M74">
+        <v>0.18890784</v>
+      </c>
+      <c r="N74">
+        <v>2.05109216</v>
+      </c>
+      <c r="O74">
+        <v>0.6973713344000001</v>
+      </c>
+      <c r="P74">
+        <v>1.3537208256</v>
+      </c>
+      <c r="Q74">
+        <v>1.9237208256</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2016223930914988</v>
+      </c>
+      <c r="T74">
+        <v>2.520768745471416</v>
+      </c>
+      <c r="U74">
+        <v>0.0178</v>
+      </c>
+      <c r="V74">
+        <v>0.34</v>
+      </c>
+      <c r="W74">
+        <v>0.011748</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>11.85763385998167</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.06469486976076916</v>
+      </c>
+      <c r="C75">
+        <v>7.308220202393985</v>
+      </c>
+      <c r="D75">
+        <v>17.43142020239398</v>
+      </c>
+      <c r="E75">
+        <v>-0.139800000000001</v>
+      </c>
+      <c r="F75">
+        <v>10.7602</v>
+      </c>
+      <c r="G75">
+        <v>0.637</v>
+      </c>
+      <c r="H75">
+        <v>3.84</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2.81</v>
+      </c>
+      <c r="K75">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L75">
+        <v>2.24</v>
+      </c>
+      <c r="M75">
+        <v>0.19153156</v>
+      </c>
+      <c r="N75">
+        <v>2.04846844</v>
+      </c>
+      <c r="O75">
+        <v>0.6964792696000001</v>
+      </c>
+      <c r="P75">
+        <v>1.3519891704</v>
+      </c>
+      <c r="Q75">
+        <v>1.9219891704</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2078475176324784</v>
+      </c>
+      <c r="T75">
+        <v>2.602361424968196</v>
+      </c>
+      <c r="U75">
+        <v>0.0178</v>
+      </c>
+      <c r="V75">
+        <v>0.34</v>
+      </c>
+      <c r="W75">
+        <v>0.011748</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>11.69520051943398</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.06447690945591865</v>
+      </c>
+      <c r="C76">
+        <v>7.214825356313897</v>
+      </c>
+      <c r="D76">
+        <v>17.4854253563139</v>
+      </c>
+      <c r="E76">
+        <v>0.007600000000000051</v>
+      </c>
+      <c r="F76">
+        <v>10.9076</v>
+      </c>
+      <c r="G76">
+        <v>0.637</v>
+      </c>
+      <c r="H76">
+        <v>3.84</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2.81</v>
+      </c>
+      <c r="K76">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L76">
+        <v>2.24</v>
+      </c>
+      <c r="M76">
+        <v>0.19415528</v>
+      </c>
+      <c r="N76">
+        <v>2.04584472</v>
+      </c>
+      <c r="O76">
+        <v>0.6955872048000001</v>
+      </c>
+      <c r="P76">
+        <v>1.3502575152</v>
+      </c>
+      <c r="Q76">
+        <v>1.9202575152</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2145514979073794</v>
+      </c>
+      <c r="T76">
+        <v>2.690230464426266</v>
+      </c>
+      <c r="U76">
+        <v>0.0178</v>
+      </c>
+      <c r="V76">
+        <v>0.34</v>
+      </c>
+      <c r="W76">
+        <v>0.011748</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>11.53715726917136</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.06425894915106814</v>
+      </c>
+      <c r="C77">
+        <v>7.121766182327939</v>
+      </c>
+      <c r="D77">
+        <v>17.53976618232794</v>
+      </c>
+      <c r="E77">
+        <v>0.1549999999999994</v>
+      </c>
+      <c r="F77">
+        <v>11.055</v>
+      </c>
+      <c r="G77">
+        <v>0.637</v>
+      </c>
+      <c r="H77">
+        <v>3.84</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>2.81</v>
+      </c>
+      <c r="K77">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L77">
+        <v>2.24</v>
+      </c>
+      <c r="M77">
+        <v>0.196779</v>
+      </c>
+      <c r="N77">
+        <v>2.043221</v>
+      </c>
+      <c r="O77">
+        <v>0.6946951400000002</v>
+      </c>
+      <c r="P77">
+        <v>1.34852586</v>
+      </c>
+      <c r="Q77">
+        <v>1.91852586</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2217917966042726</v>
+      </c>
+      <c r="T77">
+        <v>2.785129027040982</v>
+      </c>
+      <c r="U77">
+        <v>0.0178</v>
+      </c>
+      <c r="V77">
+        <v>0.34</v>
+      </c>
+      <c r="W77">
+        <v>0.011748</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>11.38332850558241</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.06404098884621763</v>
+      </c>
+      <c r="C78">
+        <v>7.02904581977586</v>
+      </c>
+      <c r="D78">
+        <v>17.59444581977586</v>
+      </c>
+      <c r="E78">
+        <v>0.3024000000000004</v>
+      </c>
+      <c r="F78">
+        <v>11.2024</v>
+      </c>
+      <c r="G78">
+        <v>0.637</v>
+      </c>
+      <c r="H78">
+        <v>3.84</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2.81</v>
+      </c>
+      <c r="K78">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L78">
+        <v>2.24</v>
+      </c>
+      <c r="M78">
+        <v>0.19940272</v>
+      </c>
+      <c r="N78">
+        <v>2.04059728</v>
+      </c>
+      <c r="O78">
+        <v>0.6938030752000001</v>
+      </c>
+      <c r="P78">
+        <v>1.3467942048</v>
+      </c>
+      <c r="Q78">
+        <v>1.9167942048</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2296354535259068</v>
+      </c>
+      <c r="T78">
+        <v>2.887935803206925</v>
+      </c>
+      <c r="U78">
+        <v>0.0178</v>
+      </c>
+      <c r="V78">
+        <v>0.34</v>
+      </c>
+      <c r="W78">
+        <v>0.011748</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>11.23354786735106</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.06382302854136711</v>
+      </c>
+      <c r="C79">
+        <v>6.936667447266986</v>
+      </c>
+      <c r="D79">
+        <v>17.64946744726699</v>
+      </c>
+      <c r="E79">
+        <v>0.4497999999999998</v>
+      </c>
+      <c r="F79">
+        <v>11.3498</v>
+      </c>
+      <c r="G79">
+        <v>0.637</v>
+      </c>
+      <c r="H79">
+        <v>3.84</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>2.81</v>
+      </c>
+      <c r="K79">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L79">
+        <v>2.24</v>
+      </c>
+      <c r="M79">
+        <v>0.20202644</v>
+      </c>
+      <c r="N79">
+        <v>2.03797356</v>
+      </c>
+      <c r="O79">
+        <v>0.6929110104000001</v>
+      </c>
+      <c r="P79">
+        <v>1.3450625496</v>
+      </c>
+      <c r="Q79">
+        <v>1.9150625496</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2381611675711614</v>
+      </c>
+      <c r="T79">
+        <v>2.999682299039471</v>
+      </c>
+      <c r="U79">
+        <v>0.0178</v>
+      </c>
+      <c r="V79">
+        <v>0.34</v>
+      </c>
+      <c r="W79">
+        <v>0.011748</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>11.08765763530754</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.0636050682365166</v>
+      </c>
+      <c r="C80">
+        <v>6.84463428329615</v>
+      </c>
+      <c r="D80">
+        <v>17.70483428329615</v>
+      </c>
+      <c r="E80">
+        <v>0.5972000000000008</v>
+      </c>
+      <c r="F80">
+        <v>11.4972</v>
+      </c>
+      <c r="G80">
+        <v>0.637</v>
+      </c>
+      <c r="H80">
+        <v>3.84</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2.81</v>
+      </c>
+      <c r="K80">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L80">
+        <v>2.24</v>
+      </c>
+      <c r="M80">
+        <v>0.20465016</v>
+      </c>
+      <c r="N80">
+        <v>2.03534984</v>
+      </c>
+      <c r="O80">
+        <v>0.6920189456000001</v>
+      </c>
+      <c r="P80">
+        <v>1.3433308944</v>
+      </c>
+      <c r="Q80">
+        <v>1.9133308944</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2474619465296209</v>
+      </c>
+      <c r="T80">
+        <v>3.12158756722043</v>
+      </c>
+      <c r="U80">
+        <v>0.0178</v>
+      </c>
+      <c r="V80">
+        <v>0.34</v>
+      </c>
+      <c r="W80">
+        <v>0.011748</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>10.94550817844462</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.06338710793166608</v>
+      </c>
+      <c r="C81">
+        <v>6.752949586871303</v>
+      </c>
+      <c r="D81">
+        <v>17.7605495868713</v>
+      </c>
+      <c r="E81">
+        <v>0.7446000000000002</v>
+      </c>
+      <c r="F81">
+        <v>11.6446</v>
+      </c>
+      <c r="G81">
+        <v>0.637</v>
+      </c>
+      <c r="H81">
+        <v>3.84</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2.81</v>
+      </c>
+      <c r="K81">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L81">
+        <v>2.24</v>
+      </c>
+      <c r="M81">
+        <v>0.20727388</v>
+      </c>
+      <c r="N81">
+        <v>2.03272612</v>
+      </c>
+      <c r="O81">
+        <v>0.6911268808000002</v>
+      </c>
+      <c r="P81">
+        <v>1.3415992392</v>
+      </c>
+      <c r="Q81">
+        <v>1.9115992392</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2576485139603147</v>
+      </c>
+      <c r="T81">
+        <v>3.255102860942434</v>
+      </c>
+      <c r="U81">
+        <v>0.0178</v>
+      </c>
+      <c r="V81">
+        <v>0.34</v>
+      </c>
+      <c r="W81">
+        <v>0.011748</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>10.80695744200861</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.06433074762681557</v>
+      </c>
+      <c r="C82">
+        <v>6.366828460858574</v>
+      </c>
+      <c r="D82">
+        <v>17.52182846085858</v>
+      </c>
+      <c r="E82">
+        <v>0.8920000000000012</v>
+      </c>
+      <c r="F82">
+        <v>11.792</v>
+      </c>
+      <c r="G82">
+        <v>0.637</v>
+      </c>
+      <c r="H82">
+        <v>3.84</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>2.81</v>
+      </c>
+      <c r="K82">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L82">
+        <v>2.24</v>
+      </c>
+      <c r="M82">
+        <v>0.23584</v>
+      </c>
+      <c r="N82">
+        <v>2.00416</v>
+      </c>
+      <c r="O82">
+        <v>0.6814144000000001</v>
+      </c>
+      <c r="P82">
+        <v>1.3227456</v>
+      </c>
+      <c r="Q82">
+        <v>1.8927456</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2688537381340779</v>
+      </c>
+      <c r="T82">
+        <v>3.401969684036637</v>
+      </c>
+      <c r="U82">
+        <v>0.02</v>
+      </c>
+      <c r="V82">
+        <v>0.34</v>
+      </c>
+      <c r="W82">
+        <v>0.0132</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>9.497964721845319</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.06412730732196505</v>
+      </c>
+      <c r="C83">
+        <v>6.270350406699462</v>
+      </c>
+      <c r="D83">
+        <v>17.57275040669946</v>
+      </c>
+      <c r="E83">
+        <v>1.039400000000001</v>
+      </c>
+      <c r="F83">
+        <v>11.9394</v>
+      </c>
+      <c r="G83">
+        <v>0.637</v>
+      </c>
+      <c r="H83">
+        <v>3.84</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>2.81</v>
+      </c>
+      <c r="K83">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L83">
+        <v>2.24</v>
+      </c>
+      <c r="M83">
+        <v>0.238788</v>
+      </c>
+      <c r="N83">
+        <v>2.001212</v>
+      </c>
+      <c r="O83">
+        <v>0.6804120800000001</v>
+      </c>
+      <c r="P83">
+        <v>1.32079992</v>
+      </c>
+      <c r="Q83">
+        <v>1.89079992</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2812384595892898</v>
+      </c>
+      <c r="T83">
+        <v>3.564296172719704</v>
+      </c>
+      <c r="U83">
+        <v>0.02</v>
+      </c>
+      <c r="V83">
+        <v>0.34</v>
+      </c>
+      <c r="W83">
+        <v>0.0132</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>9.380705898118835</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.06392386701711454</v>
+      </c>
+      <c r="C84">
+        <v>6.174169193985403</v>
+      </c>
+      <c r="D84">
+        <v>17.6239691939854</v>
+      </c>
+      <c r="E84">
+        <v>1.1868</v>
+      </c>
+      <c r="F84">
+        <v>12.0868</v>
+      </c>
+      <c r="G84">
+        <v>0.637</v>
+      </c>
+      <c r="H84">
+        <v>3.84</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>2.81</v>
+      </c>
+      <c r="K84">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L84">
+        <v>2.24</v>
+      </c>
+      <c r="M84">
+        <v>0.241736</v>
+      </c>
+      <c r="N84">
+        <v>1.998264</v>
+      </c>
+      <c r="O84">
+        <v>0.6794097600000001</v>
+      </c>
+      <c r="P84">
+        <v>1.31885424</v>
+      </c>
+      <c r="Q84">
+        <v>1.88885424</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.294999261206192</v>
+      </c>
+      <c r="T84">
+        <v>3.744658937923112</v>
+      </c>
+      <c r="U84">
+        <v>0.02</v>
+      </c>
+      <c r="V84">
+        <v>0.34</v>
+      </c>
+      <c r="W84">
+        <v>0.0132</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>9.266307045702751</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.06372042671226402</v>
+      </c>
+      <c r="C85">
+        <v>6.078287425889322</v>
+      </c>
+      <c r="D85">
+        <v>17.67548742588932</v>
+      </c>
+      <c r="E85">
+        <v>1.334200000000001</v>
+      </c>
+      <c r="F85">
+        <v>12.2342</v>
+      </c>
+      <c r="G85">
+        <v>0.637</v>
+      </c>
+      <c r="H85">
+        <v>3.84</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2.81</v>
+      </c>
+      <c r="K85">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L85">
+        <v>2.24</v>
+      </c>
+      <c r="M85">
+        <v>0.244684</v>
+      </c>
+      <c r="N85">
+        <v>1.995316</v>
+      </c>
+      <c r="O85">
+        <v>0.6784074400000002</v>
+      </c>
+      <c r="P85">
+        <v>1.31690856</v>
+      </c>
+      <c r="Q85">
+        <v>1.88690856</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3103789806603768</v>
+      </c>
+      <c r="T85">
+        <v>3.946240851973979</v>
+      </c>
+      <c r="U85">
+        <v>0.02</v>
+      </c>
+      <c r="V85">
+        <v>0.34</v>
+      </c>
+      <c r="W85">
+        <v>0.0132</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>9.154664792140068</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.06351698640741353</v>
+      </c>
+      <c r="C86">
+        <v>5.982707736111648</v>
+      </c>
+      <c r="D86">
+        <v>17.72730773611165</v>
+      </c>
+      <c r="E86">
+        <v>1.4816</v>
+      </c>
+      <c r="F86">
+        <v>12.3816</v>
+      </c>
+      <c r="G86">
+        <v>0.637</v>
+      </c>
+      <c r="H86">
+        <v>3.84</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2.81</v>
+      </c>
+      <c r="K86">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L86">
+        <v>2.24</v>
+      </c>
+      <c r="M86">
+        <v>0.247632</v>
+      </c>
+      <c r="N86">
+        <v>1.992368</v>
+      </c>
+      <c r="O86">
+        <v>0.6774051200000002</v>
+      </c>
+      <c r="P86">
+        <v>1.31496288</v>
+      </c>
+      <c r="Q86">
+        <v>1.88496288</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3276811650463345</v>
+      </c>
+      <c r="T86">
+        <v>4.173020505281203</v>
+      </c>
+      <c r="U86">
+        <v>0.02</v>
+      </c>
+      <c r="V86">
+        <v>0.34</v>
+      </c>
+      <c r="W86">
+        <v>0.0132</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>9.045680687471735</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.06331354610256301</v>
+      </c>
+      <c r="C87">
+        <v>5.887432789329168</v>
+      </c>
+      <c r="D87">
+        <v>17.77943278932917</v>
+      </c>
+      <c r="E87">
+        <v>1.629</v>
+      </c>
+      <c r="F87">
+        <v>12.529</v>
+      </c>
+      <c r="G87">
+        <v>0.637</v>
+      </c>
+      <c r="H87">
+        <v>3.84</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>2.81</v>
+      </c>
+      <c r="K87">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L87">
+        <v>2.24</v>
+      </c>
+      <c r="M87">
+        <v>0.25058</v>
+      </c>
+      <c r="N87">
+        <v>1.98942</v>
+      </c>
+      <c r="O87">
+        <v>0.6764028000000001</v>
+      </c>
+      <c r="P87">
+        <v>1.3130172</v>
+      </c>
+      <c r="Q87">
+        <v>1.8830172</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.34729030735042</v>
+      </c>
+      <c r="T87">
+        <v>4.430037445696059</v>
+      </c>
+      <c r="U87">
+        <v>0.02</v>
+      </c>
+      <c r="V87">
+        <v>0.34</v>
+      </c>
+      <c r="W87">
+        <v>0.0132</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>8.939260914677948</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.06311010579771251</v>
+      </c>
+      <c r="C88">
+        <v>5.792465281651753</v>
+      </c>
+      <c r="D88">
+        <v>17.83186528165175</v>
+      </c>
+      <c r="E88">
+        <v>1.776399999999999</v>
+      </c>
+      <c r="F88">
+        <v>12.6764</v>
+      </c>
+      <c r="G88">
+        <v>0.637</v>
+      </c>
+      <c r="H88">
+        <v>3.84</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>2.81</v>
+      </c>
+      <c r="K88">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L88">
+        <v>2.24</v>
+      </c>
+      <c r="M88">
+        <v>0.2535279999999999</v>
+      </c>
+      <c r="N88">
+        <v>1.986472</v>
+      </c>
+      <c r="O88">
+        <v>0.6754004800000001</v>
+      </c>
+      <c r="P88">
+        <v>1.31107152</v>
+      </c>
+      <c r="Q88">
+        <v>1.88107152</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3697007556979464</v>
+      </c>
+      <c r="T88">
+        <v>4.723771091884466</v>
+      </c>
+      <c r="U88">
+        <v>0.02</v>
+      </c>
+      <c r="V88">
+        <v>0.34</v>
+      </c>
+      <c r="W88">
+        <v>0.0132</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>8.83531602032123</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.06290666549286199</v>
+      </c>
+      <c r="C89">
+        <v>5.697807941087225</v>
+      </c>
+      <c r="D89">
+        <v>17.88460794108722</v>
+      </c>
+      <c r="E89">
+        <v>1.9238</v>
+      </c>
+      <c r="F89">
+        <v>12.8238</v>
+      </c>
+      <c r="G89">
+        <v>0.637</v>
+      </c>
+      <c r="H89">
+        <v>3.84</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>2.81</v>
+      </c>
+      <c r="K89">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L89">
+        <v>2.24</v>
+      </c>
+      <c r="M89">
+        <v>0.256476</v>
+      </c>
+      <c r="N89">
+        <v>1.983524</v>
+      </c>
+      <c r="O89">
+        <v>0.6743981600000002</v>
+      </c>
+      <c r="P89">
+        <v>1.30912584</v>
+      </c>
+      <c r="Q89">
+        <v>1.87912584</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3955589653297076</v>
+      </c>
+      <c r="T89">
+        <v>5.062694529794165</v>
+      </c>
+      <c r="U89">
+        <v>0.02</v>
+      </c>
+      <c r="V89">
+        <v>0.34</v>
+      </c>
+      <c r="W89">
+        <v>0.0132</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>8.733760663765812</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.06270322518801148</v>
+      </c>
+      <c r="C90">
+        <v>5.603463528014501</v>
+      </c>
+      <c r="D90">
+        <v>17.9376635280145</v>
+      </c>
+      <c r="E90">
+        <v>2.071199999999999</v>
+      </c>
+      <c r="F90">
+        <v>12.9712</v>
+      </c>
+      <c r="G90">
+        <v>0.637</v>
+      </c>
+      <c r="H90">
+        <v>3.84</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2.81</v>
+      </c>
+      <c r="K90">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L90">
+        <v>2.24</v>
+      </c>
+      <c r="M90">
+        <v>0.2594239999999999</v>
+      </c>
+      <c r="N90">
+        <v>1.980576</v>
+      </c>
+      <c r="O90">
+        <v>0.6733958400000002</v>
+      </c>
+      <c r="P90">
+        <v>1.30718016</v>
+      </c>
+      <c r="Q90">
+        <v>1.87718016</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4257268765667623</v>
+      </c>
+      <c r="T90">
+        <v>5.458105207355483</v>
+      </c>
+      <c r="U90">
+        <v>0.02</v>
+      </c>
+      <c r="V90">
+        <v>0.34</v>
+      </c>
+      <c r="W90">
+        <v>0.0132</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>8.634513383495747</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.06249978488316096</v>
+      </c>
+      <c r="C91">
+        <v>5.509434835665168</v>
+      </c>
+      <c r="D91">
+        <v>17.99103483566517</v>
+      </c>
+      <c r="E91">
+        <v>2.2186</v>
+      </c>
+      <c r="F91">
+        <v>13.1186</v>
+      </c>
+      <c r="G91">
+        <v>0.637</v>
+      </c>
+      <c r="H91">
+        <v>3.84</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>2.81</v>
+      </c>
+      <c r="K91">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L91">
+        <v>2.24</v>
+      </c>
+      <c r="M91">
+        <v>0.262372</v>
+      </c>
+      <c r="N91">
+        <v>1.977628</v>
+      </c>
+      <c r="O91">
+        <v>0.6723935200000001</v>
+      </c>
+      <c r="P91">
+        <v>1.30523448</v>
+      </c>
+      <c r="Q91">
+        <v>1.87523448</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4613798625741906</v>
+      </c>
+      <c r="T91">
+        <v>5.925408735382494</v>
+      </c>
+      <c r="U91">
+        <v>0.02</v>
+      </c>
+      <c r="V91">
+        <v>0.34</v>
+      </c>
+      <c r="W91">
+        <v>0.0132</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>8.537496379186805</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.06229634457831044</v>
+      </c>
+      <c r="C92">
+        <v>5.415724690613688</v>
+      </c>
+      <c r="D92">
+        <v>18.04472469061369</v>
+      </c>
+      <c r="E92">
+        <v>2.366</v>
+      </c>
+      <c r="F92">
+        <v>13.266</v>
+      </c>
+      <c r="G92">
+        <v>0.637</v>
+      </c>
+      <c r="H92">
+        <v>3.84</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>2.81</v>
+      </c>
+      <c r="K92">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L92">
+        <v>2.24</v>
+      </c>
+      <c r="M92">
+        <v>0.2653199999999999</v>
+      </c>
+      <c r="N92">
+        <v>1.97468</v>
+      </c>
+      <c r="O92">
+        <v>0.6713912000000001</v>
+      </c>
+      <c r="P92">
+        <v>1.3032888</v>
+      </c>
+      <c r="Q92">
+        <v>1.8732888</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5041634457831046</v>
+      </c>
+      <c r="T92">
+        <v>6.486172969014906</v>
+      </c>
+      <c r="U92">
+        <v>0.02</v>
+      </c>
+      <c r="V92">
+        <v>0.34</v>
+      </c>
+      <c r="W92">
+        <v>0.0132</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>8.442635308306953</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.06209290427345994</v>
+      </c>
+      <c r="C93">
+        <v>5.322335953276374</v>
+      </c>
+      <c r="D93">
+        <v>18.09873595327637</v>
+      </c>
+      <c r="E93">
+        <v>2.513400000000001</v>
+      </c>
+      <c r="F93">
+        <v>13.4134</v>
+      </c>
+      <c r="G93">
+        <v>0.637</v>
+      </c>
+      <c r="H93">
+        <v>3.84</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>2.81</v>
+      </c>
+      <c r="K93">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L93">
+        <v>2.24</v>
+      </c>
+      <c r="M93">
+        <v>0.268268</v>
+      </c>
+      <c r="N93">
+        <v>1.971732</v>
+      </c>
+      <c r="O93">
+        <v>0.6703888800000002</v>
+      </c>
+      <c r="P93">
+        <v>1.30134312</v>
+      </c>
+      <c r="Q93">
+        <v>1.87134312</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5564544919273329</v>
+      </c>
+      <c r="T93">
+        <v>7.171551476787856</v>
+      </c>
+      <c r="U93">
+        <v>0.02</v>
+      </c>
+      <c r="V93">
+        <v>0.34</v>
+      </c>
+      <c r="W93">
+        <v>0.0132</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>8.349859096127753</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.06188946396860942</v>
+      </c>
+      <c r="C94">
+        <v>5.229271518419473</v>
+      </c>
+      <c r="D94">
+        <v>18.15307151841947</v>
+      </c>
+      <c r="E94">
+        <v>2.6608</v>
+      </c>
+      <c r="F94">
+        <v>13.5608</v>
+      </c>
+      <c r="G94">
+        <v>0.637</v>
+      </c>
+      <c r="H94">
+        <v>3.84</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>2.81</v>
+      </c>
+      <c r="K94">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L94">
+        <v>2.24</v>
+      </c>
+      <c r="M94">
+        <v>0.271216</v>
+      </c>
+      <c r="N94">
+        <v>1.968784</v>
+      </c>
+      <c r="O94">
+        <v>0.6693865600000002</v>
+      </c>
+      <c r="P94">
+        <v>1.29939744</v>
+      </c>
+      <c r="Q94">
+        <v>1.86939744</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6218182996076181</v>
+      </c>
+      <c r="T94">
+        <v>8.028274611504044</v>
+      </c>
+      <c r="U94">
+        <v>0.02</v>
+      </c>
+      <c r="V94">
+        <v>0.34</v>
+      </c>
+      <c r="W94">
+        <v>0.0132</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>8.259099758126366</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.06168602366375891</v>
+      </c>
+      <c r="C95">
+        <v>5.136534315676236</v>
+      </c>
+      <c r="D95">
+        <v>18.20773431567624</v>
+      </c>
+      <c r="E95">
+        <v>2.808200000000001</v>
+      </c>
+      <c r="F95">
+        <v>13.7082</v>
+      </c>
+      <c r="G95">
+        <v>0.637</v>
+      </c>
+      <c r="H95">
+        <v>3.84</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>2.81</v>
+      </c>
+      <c r="K95">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L95">
+        <v>2.24</v>
+      </c>
+      <c r="M95">
+        <v>0.274164</v>
+      </c>
+      <c r="N95">
+        <v>1.965836</v>
+      </c>
+      <c r="O95">
+        <v>0.6683842400000002</v>
+      </c>
+      <c r="P95">
+        <v>1.29745176</v>
+      </c>
+      <c r="Q95">
+        <v>1.86745176</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7058574809108421</v>
+      </c>
+      <c r="T95">
+        <v>9.129775784710571</v>
+      </c>
+      <c r="U95">
+        <v>0.02</v>
+      </c>
+      <c r="V95">
+        <v>0.34</v>
+      </c>
+      <c r="W95">
+        <v>0.0132</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>8.170292233845437</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.06148258335890839</v>
+      </c>
+      <c r="C96">
+        <v>5.044127310073526</v>
+      </c>
+      <c r="D96">
+        <v>18.26272731007353</v>
+      </c>
+      <c r="E96">
+        <v>2.9556</v>
+      </c>
+      <c r="F96">
+        <v>13.8556</v>
+      </c>
+      <c r="G96">
+        <v>0.637</v>
+      </c>
+      <c r="H96">
+        <v>3.84</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>2.81</v>
+      </c>
+      <c r="K96">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L96">
+        <v>2.24</v>
+      </c>
+      <c r="M96">
+        <v>0.277112</v>
+      </c>
+      <c r="N96">
+        <v>1.962888</v>
+      </c>
+      <c r="O96">
+        <v>0.6673819200000001</v>
+      </c>
+      <c r="P96">
+        <v>1.29550608</v>
+      </c>
+      <c r="Q96">
+        <v>1.86550608</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.8179097226484741</v>
+      </c>
+      <c r="T96">
+        <v>10.59844401565261</v>
+      </c>
+      <c r="U96">
+        <v>0.02</v>
+      </c>
+      <c r="V96">
+        <v>0.34</v>
+      </c>
+      <c r="W96">
+        <v>0.0132</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>8.08337423135772</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.06127914305405789</v>
+      </c>
+      <c r="C97">
+        <v>4.952053502567923</v>
+      </c>
+      <c r="D97">
+        <v>18.31805350256792</v>
+      </c>
+      <c r="E97">
+        <v>3.103000000000002</v>
+      </c>
+      <c r="F97">
+        <v>14.003</v>
+      </c>
+      <c r="G97">
+        <v>0.637</v>
+      </c>
+      <c r="H97">
+        <v>3.84</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>2.81</v>
+      </c>
+      <c r="K97">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L97">
+        <v>2.24</v>
+      </c>
+      <c r="M97">
+        <v>0.28006</v>
+      </c>
+      <c r="N97">
+        <v>1.95994</v>
+      </c>
+      <c r="O97">
+        <v>0.6663796000000002</v>
+      </c>
+      <c r="P97">
+        <v>1.2935604</v>
+      </c>
+      <c r="Q97">
+        <v>1.8635604</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9747828610811592</v>
+      </c>
+      <c r="T97">
+        <v>12.65457953897146</v>
+      </c>
+      <c r="U97">
+        <v>0.02</v>
+      </c>
+      <c r="V97">
+        <v>0.34</v>
+      </c>
+      <c r="W97">
+        <v>0.0132</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>7.998286081553954</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.06107570274920738</v>
+      </c>
+      <c r="C98">
+        <v>4.86031593059162</v>
+      </c>
+      <c r="D98">
+        <v>18.37371593059162</v>
+      </c>
+      <c r="E98">
+        <v>3.250399999999999</v>
+      </c>
+      <c r="F98">
+        <v>14.1504</v>
+      </c>
+      <c r="G98">
+        <v>0.637</v>
+      </c>
+      <c r="H98">
+        <v>3.84</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2.81</v>
+      </c>
+      <c r="K98">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L98">
+        <v>2.24</v>
+      </c>
+      <c r="M98">
+        <v>0.2830079999999999</v>
+      </c>
+      <c r="N98">
+        <v>1.956992</v>
+      </c>
+      <c r="O98">
+        <v>0.6653772800000002</v>
+      </c>
+      <c r="P98">
+        <v>1.29161472</v>
+      </c>
+      <c r="Q98">
+        <v>1.86161472</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.210092568730184</v>
+      </c>
+      <c r="T98">
+        <v>15.7387828239497</v>
+      </c>
+      <c r="U98">
+        <v>0.02</v>
+      </c>
+      <c r="V98">
+        <v>0.34</v>
+      </c>
+      <c r="W98">
+        <v>0.0132</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>7.914970601537768</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.06157648244435687</v>
+      </c>
+      <c r="C99">
+        <v>4.576503744663478</v>
+      </c>
+      <c r="D99">
+        <v>18.23730374466348</v>
+      </c>
+      <c r="E99">
+        <v>3.3978</v>
+      </c>
+      <c r="F99">
+        <v>14.2978</v>
+      </c>
+      <c r="G99">
+        <v>0.637</v>
+      </c>
+      <c r="H99">
+        <v>3.84</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2.81</v>
+      </c>
+      <c r="K99">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L99">
+        <v>2.24</v>
+      </c>
+      <c r="M99">
+        <v>0.30168358</v>
+      </c>
+      <c r="N99">
+        <v>1.93831642</v>
+      </c>
+      <c r="O99">
+        <v>0.6590275828000002</v>
+      </c>
+      <c r="P99">
+        <v>1.2792888372</v>
+      </c>
+      <c r="Q99">
+        <v>1.8492888372</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.602275414811894</v>
+      </c>
+      <c r="T99">
+        <v>20.87912163224681</v>
+      </c>
+      <c r="U99">
+        <v>0.0211</v>
+      </c>
+      <c r="V99">
+        <v>0.34</v>
+      </c>
+      <c r="W99">
+        <v>0.013926</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>7.42499807248376</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.06138030213950636</v>
+      </c>
+      <c r="C100">
+        <v>4.482301152327775</v>
+      </c>
+      <c r="D100">
+        <v>18.29050115232777</v>
+      </c>
+      <c r="E100">
+        <v>3.545199999999999</v>
+      </c>
+      <c r="F100">
+        <v>14.4452</v>
+      </c>
+      <c r="G100">
+        <v>0.637</v>
+      </c>
+      <c r="H100">
+        <v>3.84</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>2.81</v>
+      </c>
+      <c r="K100">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L100">
+        <v>2.24</v>
+      </c>
+      <c r="M100">
+        <v>0.30479372</v>
+      </c>
+      <c r="N100">
+        <v>1.93520628</v>
+      </c>
+      <c r="O100">
+        <v>0.6579701352000001</v>
+      </c>
+      <c r="P100">
+        <v>1.2772361448</v>
+      </c>
+      <c r="Q100">
+        <v>1.8472361448</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.386641106975316</v>
+      </c>
+      <c r="T100">
+        <v>31.15979924884103</v>
+      </c>
+      <c r="U100">
+        <v>0.0211</v>
+      </c>
+      <c r="V100">
+        <v>0.34</v>
+      </c>
+      <c r="W100">
+        <v>0.013926</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>7.349232786029845</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.06118412183465584</v>
+      </c>
+      <c r="C101">
+        <v>4.388409816880888</v>
+      </c>
+      <c r="D101">
+        <v>18.34400981688089</v>
+      </c>
+      <c r="E101">
+        <v>3.692600000000001</v>
+      </c>
+      <c r="F101">
+        <v>14.5926</v>
+      </c>
+      <c r="G101">
+        <v>0.637</v>
+      </c>
+      <c r="H101">
+        <v>3.84</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2.81</v>
+      </c>
+      <c r="K101">
+        <v>0.5699999999999998</v>
+      </c>
+      <c r="L101">
+        <v>2.24</v>
+      </c>
+      <c r="M101">
+        <v>0.30790386</v>
+      </c>
+      <c r="N101">
+        <v>1.93209614</v>
+      </c>
+      <c r="O101">
+        <v>0.6569126876000001</v>
+      </c>
+      <c r="P101">
+        <v>1.2751834524</v>
+      </c>
+      <c r="Q101">
+        <v>1.8451834524</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.73973818346558</v>
+      </c>
+      <c r="T101">
+        <v>62.00183209862369</v>
+      </c>
+      <c r="U101">
+        <v>0.0211</v>
+      </c>
+      <c r="V101">
+        <v>0.34</v>
+      </c>
+      <c r="W101">
+        <v>0.013926</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>7.274998111423481</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
